--- a/docs/CreateSportEthInputs.xlsx
+++ b/docs/CreateSportEthInputs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{079F2FE1-D0E2-4C13-841A-A1F84339E67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C43A89B-CB99-4E59-8A26-1E3032766EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37065" yWindow="420" windowWidth="21600" windowHeight="13740" xr2:uid="{1230EDBB-7CF7-4CB6-8A8B-436EE42A5ED4}"/>
+    <workbookView xWindow="30825" yWindow="1350" windowWidth="21600" windowHeight="13365" activeTab="1" xr2:uid="{1230EDBB-7CF7-4CB6-8A8B-436EE42A5ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="initData" sheetId="3" r:id="rId1"/>
@@ -467,14 +467,14 @@
     <numFmt numFmtId="164" formatCode="#,##0.000;[Red]#,##0.000"/>
     <numFmt numFmtId="165" formatCode="0.00%;[Red]\-0.00%"/>
     <numFmt numFmtId="166" formatCode="#,##0;[Red]#,##0"/>
-    <numFmt numFmtId="168" formatCode="0.0%;[Red]\-0.0%"/>
-    <numFmt numFmtId="169" formatCode="#,##0.00;[Red]#,##0.00"/>
-    <numFmt numFmtId="171" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
-    <numFmt numFmtId="173" formatCode="###0;[Red]###0"/>
-    <numFmt numFmtId="174" formatCode="0.0E+00;"/>
-    <numFmt numFmtId="175" formatCode="0.0000%;[Red]\-0.0000%"/>
-    <numFmt numFmtId="176" formatCode="#,##0.0;[Red]#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0%;[Red]\-0.0%"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00;[Red]#,##0.00"/>
+    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="171" formatCode="###0;[Red]###0"/>
+    <numFmt numFmtId="172" formatCode="0.0E+00;"/>
+    <numFmt numFmtId="173" formatCode="0.0000%;[Red]\-0.0000%"/>
+    <numFmt numFmtId="174" formatCode="#,##0.0;[Red]#,##0.0"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -652,15 +652,15 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -670,17 +670,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="171" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -689,28 +689,28 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="172" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="5" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="173" fontId="4" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="4" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="4" borderId="2" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="3" xfId="3" applyBorder="1"/>
-    <xf numFmtId="173" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="4" fillId="4" borderId="0" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="3" applyBorder="1"/>
-    <xf numFmtId="173" fontId="4" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="4" fillId="4" borderId="8" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="171" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="16" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -729,26 +729,26 @@
     <xf numFmtId="16" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFill="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -759,7 +759,7 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
@@ -771,7 +771,7 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -786,9 +786,10 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="1" fillId="2" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1109,8 +1110,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1148,6 +1149,10 @@
       <c r="E1" t="s">
         <v>56</v>
       </c>
+      <c r="G1">
+        <f>2*8*2*3*3</f>
+        <v>288</v>
+      </c>
       <c r="I1" s="7"/>
       <c r="J1" s="68">
         <f>J2/86400</f>
@@ -1324,10 +1329,10 @@
         <v>9</v>
       </c>
       <c r="E4" s="71">
-        <v>-110</v>
+        <v>-1600</v>
       </c>
       <c r="F4" s="71">
-        <v>-110</v>
+        <v>750</v>
       </c>
       <c r="G4" s="72">
         <v>45029.5</v>
@@ -1342,7 +1347,7 @@
       </c>
       <c r="K4" s="32">
         <f t="shared" ref="K4:K35" si="1">Z4</f>
-        <v>956.93779904306223</v>
+        <v>65.78947368421052</v>
       </c>
       <c r="M4" s="3" t="str">
         <f t="shared" ref="M4:M35" si="2">IF(E4&lt;=F4,C4,D4)</f>
@@ -1354,76 +1359,76 @@
       </c>
       <c r="O4" s="3">
         <f t="shared" ref="O4:O35" si="4">IF(E4&lt;=F4,E4,F4)</f>
-        <v>-110</v>
+        <v>-1600</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" ref="P4:P35" si="5">IF(E4&gt;F4,E4,F4)</f>
-        <v>-110</v>
+        <v>750</v>
       </c>
       <c r="Q4" s="6">
         <f>IF(O4&lt;0,-(100-O4)/O4,O4/100+1)</f>
-        <v>1.9090909090909092</v>
+        <v>1.0625</v>
       </c>
       <c r="R4" s="6">
         <f>IF(P4&lt;0,-(100-P4)/P4,P4/100+1)</f>
-        <v>1.9090909090909092</v>
+        <v>8.5</v>
       </c>
       <c r="S4" s="48">
         <f t="shared" ref="S4:S24" si="6">1/Q4</f>
-        <v>0.52380952380952384</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="T4" s="49">
         <f t="shared" ref="T4:T24" si="7">1/R4</f>
-        <v>0.52380952380952384</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="U4" s="2">
         <f>1-Q4*R4/(Q4+R4)</f>
-        <v>4.5454545454545414E-2</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="V4" s="2"/>
       <c r="W4" s="2">
         <f>ABS(S4-T4)/2</f>
-        <v>0</v>
+        <v>0.41176470588235292</v>
       </c>
       <c r="X4" s="50">
         <f>S4-W$1</f>
-        <v>0.51080952380952382</v>
+        <v>0.92817647058823527</v>
       </c>
       <c r="Y4" s="2">
         <f>T4-W$1</f>
-        <v>0.51080952380952382</v>
+        <v>0.10464705882352941</v>
       </c>
       <c r="Z4" s="15">
         <f>(Q4-1)*1000*100/95</f>
-        <v>956.93779904306223</v>
+        <v>65.78947368421052</v>
       </c>
       <c r="AA4" s="16">
         <f>1000000/(Z4+Y$1+AA$1)-Y$1</f>
-        <v>956.06333042753545</v>
+        <v>9232.34375</v>
       </c>
       <c r="AB4" s="51">
         <f>Z4*0.95</f>
-        <v>909.09090909090912</v>
+        <v>62.499999999999993</v>
       </c>
       <c r="AC4" s="52">
         <f>AA4*0.95</f>
-        <v>908.2601639061586</v>
+        <v>8770.7265625</v>
       </c>
       <c r="AD4" s="14">
         <f>Z4*0.95/1000+1</f>
-        <v>1.9090909090909092</v>
+        <v>1.0625</v>
       </c>
       <c r="AE4" s="14">
         <f>AA4*0.95/1000+1</f>
-        <v>1.9082601639061587</v>
+        <v>9.7707265625000002</v>
       </c>
       <c r="AF4" s="2">
         <f>1/AD4+1/AE4-1</f>
-        <v>4.7847083736900942E-2</v>
+        <v>4.3523004758784678E-2</v>
       </c>
       <c r="AG4" s="7">
         <f>AE4-R4</f>
-        <v>-8.3074518475045878E-4</v>
+        <v>1.2707265625000002</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
@@ -1454,7 +1459,7 @@
         <v>"NFL:LAR:ATL"</v>
       </c>
       <c r="J5" s="34">
-        <f t="shared" ref="J4:J35" si="8">1627794000+(G5-44409)*86400</f>
+        <f t="shared" ref="J5:J35" si="8">1627794000+(G5-44409)*86400</f>
         <v>1681408799.9999998</v>
       </c>
       <c r="K5" s="17">
@@ -5065,10 +5070,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972715ED-B762-437D-8CE3-242998BE45F8}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="B1:Z47"/>
+  <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5079,6 +5084,7 @@
     <col min="6" max="6" width="11" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.42578125" style="6" bestFit="1" customWidth="1"/>
@@ -6011,27 +6017,35 @@
     </row>
     <row r="16" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C16" s="14">
-        <v>1.9550000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ref="D16:D37" si="21">IF(C16&lt;2,-100/(C16-1),(C16-1)*100)</f>
-        <v>-104.71204188481674</v>
+        <v>190</v>
       </c>
       <c r="E16" s="5">
         <f>1/C16</f>
-        <v>0.51150895140664965</v>
+        <v>0.34482758620689657</v>
       </c>
       <c r="F16" s="6">
         <f>IF(C16&lt;0,-100/C16,C16/100)</f>
-        <v>1.9550000000000001E-2</v>
+        <v>2.8999999999999998E-2</v>
       </c>
       <c r="G16">
         <f>(C16-1)*1000</f>
-        <v>955.00000000000011</v>
+        <v>1900</v>
       </c>
       <c r="H16" s="3">
         <f>IF(G16&lt;1000,-100000/G16,G16/10)</f>
-        <v>-104.71204188481674</v>
+        <v>190</v>
+      </c>
+      <c r="I16" s="5">
+        <f>1-E16</f>
+        <v>0.65517241379310343</v>
+      </c>
+      <c r="J16">
+        <f>1/I16</f>
+        <v>1.5263157894736843</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="15"/>
@@ -6077,29 +6091,33 @@
         <v>250</v>
       </c>
     </row>
-    <row r="17" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="82">
+        <f>SUM(E16:E17)</f>
+        <v>1.0000067777157744</v>
+      </c>
       <c r="C17" s="14">
-        <v>2.5</v>
+        <v>1.5263</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="21"/>
-        <v>150</v>
+        <v>-190.00570017100515</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E37" si="22">1/C17</f>
-        <v>0.4</v>
+        <v>0.65517919150887771</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" ref="F17:F37" si="23">IF(C17&lt;0,-100/C17,C17/100)</f>
-        <v>2.5000000000000001E-2</v>
+        <v>1.5263000000000001E-2</v>
       </c>
       <c r="G17">
         <f t="shared" ref="G17:G36" si="24">(C17-1)*1000</f>
-        <v>1500</v>
+        <v>526.29999999999995</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" ref="H17:H36" si="25">IF(G17&lt;1000,-100000/G17,G17/10)</f>
-        <v>150</v>
+        <v>-190.00570017100515</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="15"/>
@@ -6145,29 +6163,30 @@
         <v>333.33333333333326</v>
       </c>
     </row>
-    <row r="18" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C18" s="14">
-        <v>1.5</v>
+        <f>1+0.95*1.9</f>
+        <v>2.8049999999999997</v>
       </c>
       <c r="D18" s="3">
         <f t="shared" si="21"/>
-        <v>-200</v>
+        <v>180.49999999999997</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" si="22"/>
-        <v>0.66666666666666663</v>
+        <v>0.35650623885918009</v>
       </c>
       <c r="F18" s="6">
         <f t="shared" si="23"/>
-        <v>1.4999999999999999E-2</v>
+        <v>2.8049999999999999E-2</v>
       </c>
       <c r="G18">
         <f t="shared" si="24"/>
-        <v>500</v>
+        <v>1804.9999999999998</v>
       </c>
       <c r="H18" s="3">
         <f t="shared" si="25"/>
-        <v>-200</v>
+        <v>180.49999999999997</v>
       </c>
       <c r="K18" s="3">
         <f t="shared" si="15"/>
@@ -6213,29 +6232,34 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="82">
+        <f>SUM(E18:E19)</f>
+        <v>1.0233062655311811</v>
+      </c>
       <c r="C19" s="14">
-        <v>1.52</v>
+        <f>1+0.526*0.95</f>
+        <v>1.4997</v>
       </c>
       <c r="D19" s="3">
         <f t="shared" si="21"/>
-        <v>-192.30769230769229</v>
+        <v>-200.12007204322592</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" si="22"/>
-        <v>0.65789473684210531</v>
+        <v>0.666800026672001</v>
       </c>
       <c r="F19" s="6">
         <f t="shared" si="23"/>
-        <v>1.52E-2</v>
+        <v>1.4997E-2</v>
       </c>
       <c r="G19">
         <f t="shared" si="24"/>
-        <v>520</v>
+        <v>499.70000000000005</v>
       </c>
       <c r="H19" s="3">
         <f t="shared" si="25"/>
-        <v>-192.30769230769232</v>
+        <v>-200.12007204322592</v>
       </c>
       <c r="K19" s="3">
         <f t="shared" si="15"/>
@@ -6281,29 +6305,37 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="20" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C20" s="14">
-        <v>1.2</v>
+        <v>4</v>
       </c>
       <c r="D20" s="3">
         <f t="shared" si="21"/>
-        <v>-500.00000000000011</v>
+        <v>300</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" si="22"/>
-        <v>0.83333333333333337</v>
+        <v>0.25</v>
       </c>
       <c r="F20" s="6">
         <f t="shared" si="23"/>
-        <v>1.2E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G20">
         <f t="shared" si="24"/>
-        <v>199.99999999999994</v>
+        <v>3000</v>
       </c>
       <c r="H20" s="3">
         <f t="shared" si="25"/>
-        <v>-500.00000000000011</v>
+        <v>300</v>
+      </c>
+      <c r="I20" s="5">
+        <f>1-E20</f>
+        <v>0.75</v>
+      </c>
+      <c r="J20">
+        <f>1/I20</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K20" s="3">
         <f t="shared" si="15"/>
@@ -6325,29 +6357,29 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="21" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C21" s="14">
-        <v>1.66</v>
+        <v>1.3332999999999999</v>
       </c>
       <c r="D21" s="3">
         <f t="shared" si="21"/>
-        <v>-151.51515151515153</v>
+        <v>-300.0300030003001</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" si="22"/>
-        <v>0.60240963855421692</v>
+        <v>0.75001875046876176</v>
       </c>
       <c r="F21" s="6">
         <f t="shared" si="23"/>
-        <v>1.66E-2</v>
+        <v>1.3332999999999999E-2</v>
       </c>
       <c r="G21">
         <f t="shared" si="24"/>
-        <v>659.99999999999989</v>
+        <v>333.29999999999995</v>
       </c>
       <c r="H21" s="3">
         <f t="shared" si="25"/>
-        <v>-151.51515151515153</v>
+        <v>-300.0300030003001</v>
       </c>
       <c r="M21" s="3"/>
       <c r="P21" s="3"/>
@@ -6355,29 +6387,30 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="22" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C22" s="14">
-        <v>1.29</v>
+        <f>1+0.95*3</f>
+        <v>3.8499999999999996</v>
       </c>
       <c r="D22" s="3">
         <f t="shared" si="21"/>
-        <v>-344.82758620689651</v>
+        <v>284.99999999999994</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" si="22"/>
-        <v>0.77519379844961234</v>
+        <v>0.25974025974025977</v>
       </c>
       <c r="F22" s="6">
         <f t="shared" si="23"/>
-        <v>1.29E-2</v>
+        <v>3.85E-2</v>
       </c>
       <c r="G22">
         <f t="shared" si="24"/>
-        <v>290.00000000000006</v>
+        <v>2849.9999999999995</v>
       </c>
       <c r="H22" s="3">
         <f t="shared" si="25"/>
-        <v>-344.82758620689651</v>
+        <v>284.99999999999994</v>
       </c>
       <c r="K22" s="3">
         <v>1645696620</v>
@@ -6392,29 +6425,34 @@
         <v>3000.0000000000009</v>
       </c>
     </row>
-    <row r="23" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="82">
+        <f>SUM(E22:E23)</f>
+        <v>1.0192357572610766</v>
+      </c>
       <c r="C23" s="14">
-        <v>1.5</v>
+        <f>1+0.33333*0.95</f>
+        <v>1.3166635</v>
       </c>
       <c r="D23" s="3">
         <f t="shared" si="21"/>
-        <v>-200</v>
+        <v>-315.79263161052666</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" si="22"/>
-        <v>0.66666666666666663</v>
+        <v>0.7594954975208168</v>
       </c>
       <c r="F23" s="6">
         <f t="shared" si="23"/>
-        <v>1.4999999999999999E-2</v>
+        <v>1.3166634999999999E-2</v>
       </c>
       <c r="G23">
         <f t="shared" si="24"/>
-        <v>500</v>
+        <v>316.6635</v>
       </c>
       <c r="H23" s="3">
         <f t="shared" si="25"/>
-        <v>-200</v>
+        <v>-315.79263161052666</v>
       </c>
       <c r="K23" s="3">
         <v>1643565410</v>
@@ -6429,7 +6467,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="24" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B24" s="6"/>
       <c r="C24" s="14">
         <v>1.22</v>
@@ -6472,7 +6510,11 @@
         <v>5000.0000000000018</v>
       </c>
     </row>
-    <row r="25" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>3*C23</f>
+        <v>3.9499905000000002</v>
+      </c>
       <c r="B25" s="6"/>
       <c r="C25" s="14">
         <v>2.65</v>
@@ -6525,7 +6567,7 @@
         <v>5999.9999999999973</v>
       </c>
     </row>
-    <row r="26" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B26" s="6"/>
       <c r="C26" s="14">
         <v>3.9</v>
@@ -6588,7 +6630,7 @@
         <v>7000.0000000000027</v>
       </c>
     </row>
-    <row r="27" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B27" s="6"/>
       <c r="C27" s="14">
         <v>1.47</v>
@@ -6621,7 +6663,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="28" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B28" s="6"/>
       <c r="C28" s="14">
         <v>1.32</v>
@@ -6668,7 +6710,7 @@
         <v>8999.9999999999964</v>
       </c>
     </row>
-    <row r="29" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B29" s="6"/>
       <c r="C29" s="14">
         <v>1.86</v>
@@ -6712,7 +6754,7 @@
         <v>9999.9999999999909</v>
       </c>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B30" s="6"/>
       <c r="C30" s="14">
         <v>3.2</v>
@@ -6745,7 +6787,7 @@
         <v>11000.000000000011</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B31" s="6"/>
       <c r="C31" s="14">
         <v>1.9</v>
@@ -6778,7 +6820,7 @@
         <v>12000.000000000011</v>
       </c>
     </row>
-    <row r="32" spans="2:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B32" s="6"/>
       <c r="C32" s="19">
         <v>1.907</v>

--- a/docs/CreateSportEthInputs.xlsx
+++ b/docs/CreateSportEthInputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C43A89B-CB99-4E59-8A26-1E3032766EA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8E9C1C-C6D2-4F66-B3F1-20808A014C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30825" yWindow="1350" windowWidth="21600" windowHeight="13365" activeTab="1" xr2:uid="{1230EDBB-7CF7-4CB6-8A8B-436EE42A5ED4}"/>
+    <workbookView xWindow="30315" yWindow="1410" windowWidth="23670" windowHeight="11295" activeTab="2" xr2:uid="{1230EDBB-7CF7-4CB6-8A8B-436EE42A5ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="initData" sheetId="3" r:id="rId1"/>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:AG35"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5072,8 +5072,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5095,15 +5095,18 @@
     <col min="26" max="26" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:26" x14ac:dyDescent="0.25">
-      <c r="E1" s="11"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="E1" s="11">
+        <f>E3+E4</f>
+        <v>1.074074074074074</v>
+      </c>
       <c r="F1" s="11"/>
       <c r="I1" s="11"/>
       <c r="P1">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C2" s="8" t="s">
         <v>54</v>
       </c>
@@ -5136,28 +5139,28 @@
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C3" s="13">
-        <v>-110</v>
+        <v>-170</v>
       </c>
       <c r="D3" s="6">
         <f t="shared" ref="D3:D12" si="0">IF(C3&lt;0,-(100-C3)/C3,C3/100+1)</f>
-        <v>1.9090909090909092</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="E3" s="2">
         <f t="shared" ref="E3:E12" si="1">1/D3</f>
-        <v>0.52380952380952384</v>
+        <v>0.62962962962962965</v>
       </c>
       <c r="F3" s="6">
         <f t="shared" ref="F3:F12" si="2">IF(C3&lt;0,-100/C3,C3/100)</f>
-        <v>0.90909090909090906</v>
+        <v>0.58823529411764708</v>
       </c>
       <c r="G3">
         <v>957</v>
       </c>
       <c r="H3" s="7">
         <f>1/D3</f>
-        <v>0.52380952380952384</v>
+        <v>0.62962962962962965</v>
       </c>
       <c r="I3">
         <f>1000000/G3</f>
@@ -5206,25 +5209,25 @@
         <v>58.823529411764717</v>
       </c>
     </row>
-    <row r="4" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C4" s="13">
-        <v>-104</v>
+        <v>125</v>
       </c>
       <c r="D4" s="6">
         <f t="shared" si="0"/>
-        <v>1.9615384615384615</v>
+        <v>2.25</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" si="1"/>
-        <v>0.50980392156862753</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="F4" s="6">
         <f t="shared" si="2"/>
-        <v>0.96153846153846156</v>
+        <v>1.25</v>
       </c>
       <c r="H4" s="7">
         <f t="shared" ref="H4:H11" si="7">1/D4</f>
-        <v>0.50980392156862753</v>
+        <v>0.44444444444444442</v>
       </c>
       <c r="I4" t="e">
         <f t="shared" ref="I4:I11" si="8">1000000/G4</f>
@@ -5274,29 +5277,37 @@
         <v>62.5</v>
       </c>
     </row>
-    <row r="5" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>100</f>
+        <v>100</v>
+      </c>
       <c r="C5">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="D5" s="6">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5" s="2">
         <f t="shared" si="1"/>
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="F5" s="6">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <f>A5*D5</f>
+        <v>400</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="7"/>
-        <v>0.5</v>
-      </c>
-      <c r="I5" t="e">
+        <v>0.25</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2500</v>
       </c>
       <c r="K5" s="3">
         <f t="shared" ref="K5:K20" si="15">K4+100</f>
@@ -5346,29 +5357,37 @@
         <v>2000000000</v>
       </c>
     </row>
-    <row r="6" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>300</f>
+        <v>300</v>
+      </c>
       <c r="C6">
-        <v>-168</v>
+        <v>-300</v>
       </c>
       <c r="D6" s="6">
         <f t="shared" si="0"/>
-        <v>1.5952380952380953</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" si="1"/>
-        <v>0.62686567164179097</v>
+        <v>0.75</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="2"/>
-        <v>0.59523809523809523</v>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G6">
+        <f>A6*D6</f>
+        <v>400</v>
       </c>
       <c r="H6" s="7">
         <f t="shared" si="7"/>
-        <v>0.62686567164179097</v>
-      </c>
-      <c r="I6" t="e">
+        <v>0.75</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="8"/>
-        <v>#DIV/0!</v>
+        <v>2500</v>
       </c>
       <c r="K6" s="3">
         <f t="shared" si="15"/>
@@ -5414,7 +5433,11 @@
         <v>71.428571428571402</v>
       </c>
     </row>
-    <row r="7" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>SUM(A5:A6)</f>
+        <v>400</v>
+      </c>
       <c r="C7">
         <v>159</v>
       </c>
@@ -5482,7 +5505,11 @@
         <v>76.923076923076877</v>
       </c>
     </row>
-    <row r="8" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>A7-G6</f>
+        <v>0</v>
+      </c>
       <c r="C8">
         <v>120</v>
       </c>
@@ -5550,7 +5577,7 @@
         <v>83.333333333333258</v>
       </c>
     </row>
-    <row r="9" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C9" s="13">
         <v>800</v>
       </c>
@@ -5618,7 +5645,7 @@
         <v>90.909090909090821</v>
       </c>
     </row>
-    <row r="10" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C10" s="13">
         <v>150</v>
       </c>
@@ -5686,7 +5713,7 @@
         <v>100.00000000000009</v>
       </c>
     </row>
-    <row r="11" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C11" s="13">
         <v>110</v>
       </c>
@@ -5754,7 +5781,7 @@
         <v>111.11111111111116</v>
       </c>
     </row>
-    <row r="12" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C12" s="13">
         <v>102</v>
       </c>
@@ -5830,7 +5857,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C13" s="13">
         <v>120</v>
       </c>
@@ -5906,12 +5933,12 @@
         <v>142.8571428571428</v>
       </c>
     </row>
-    <row r="14" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C14" s="8"/>
       <c r="D14" s="19"/>
       <c r="E14" s="40">
         <f>E13+E3</f>
-        <v>0.97835497835497831</v>
+        <v>1.0841750841750841</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="3">
@@ -5958,7 +5985,7 @@
         <v>166.66666666666674</v>
       </c>
     </row>
-    <row r="15" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C15" s="8" t="s">
         <v>53</v>
       </c>
@@ -6015,37 +6042,37 @@
         <v>199.99999999999994</v>
       </c>
     </row>
-    <row r="16" spans="3:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
       <c r="C16" s="14">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="D16" s="3">
         <f t="shared" ref="D16:D37" si="21">IF(C16&lt;2,-100/(C16-1),(C16-1)*100)</f>
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="E16" s="5">
         <f>1/C16</f>
-        <v>0.34482758620689657</v>
+        <v>0.25</v>
       </c>
       <c r="F16" s="6">
         <f>IF(C16&lt;0,-100/C16,C16/100)</f>
-        <v>2.8999999999999998E-2</v>
+        <v>0.04</v>
       </c>
       <c r="G16">
         <f>(C16-1)*1000</f>
-        <v>1900</v>
+        <v>3000</v>
       </c>
       <c r="H16" s="3">
         <f>IF(G16&lt;1000,-100000/G16,G16/10)</f>
-        <v>190</v>
+        <v>300</v>
       </c>
       <c r="I16" s="5">
         <f>1-E16</f>
-        <v>0.65517241379310343</v>
+        <v>0.75</v>
       </c>
       <c r="J16">
         <f>1/I16</f>
-        <v>1.5263157894736843</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="K16" s="3">
         <f t="shared" si="15"/>
@@ -6094,30 +6121,30 @@
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="82">
         <f>SUM(E16:E17)</f>
-        <v>1.0000067777157744</v>
+        <v>1.0001875468867216</v>
       </c>
       <c r="C17" s="14">
-        <v>1.5263</v>
+        <v>1.333</v>
       </c>
       <c r="D17" s="3">
         <f t="shared" si="21"/>
-        <v>-190.00570017100515</v>
+        <v>-300.30030030030031</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ref="E17:E37" si="22">1/C17</f>
-        <v>0.65517919150887771</v>
+        <v>0.75018754688672173</v>
       </c>
       <c r="F17" s="6">
         <f t="shared" ref="F17:F37" si="23">IF(C17&lt;0,-100/C17,C17/100)</f>
-        <v>1.5263000000000001E-2</v>
+        <v>1.333E-2</v>
       </c>
       <c r="G17">
         <f t="shared" ref="G17:G36" si="24">(C17-1)*1000</f>
-        <v>526.29999999999995</v>
+        <v>332.99999999999994</v>
       </c>
       <c r="H17" s="3">
         <f t="shared" ref="H17:H36" si="25">IF(G17&lt;1000,-100000/G17,G17/10)</f>
-        <v>-190.00570017100515</v>
+        <v>-300.30030030030036</v>
       </c>
       <c r="K17" s="3">
         <f t="shared" si="15"/>
@@ -6164,6 +6191,10 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>1-1/C16</f>
+        <v>0.75</v>
+      </c>
       <c r="C18" s="14">
         <f>1+0.95*1.9</f>
         <v>2.8049999999999997</v>
@@ -6234,8 +6265,8 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="82">
-        <f>SUM(E18:E19)</f>
-        <v>1.0233062655311811</v>
+        <f>1/A18</f>
+        <v>1.3333333333333333</v>
       </c>
       <c r="C19" s="14">
         <f>1+0.526*0.95</f>
@@ -7232,15 +7263,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000A8703-1866-4462-8729-CF2892335D69}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="C2:H21"/>
+  <dimension ref="C2:T29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D2" s="4" t="s">
         <v>110</v>
       </c>
@@ -7248,7 +7279,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>0</v>
       </c>
@@ -7262,7 +7293,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>1</v>
       </c>
@@ -7275,8 +7306,43 @@
       <c r="H4" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>-110</v>
+      </c>
+      <c r="L4">
+        <f>K5</f>
+        <v>-120</v>
+      </c>
+      <c r="M4">
+        <f>IF(J4/2=INT(J4/2),0,1)</f>
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>-110</v>
+      </c>
+      <c r="P4">
+        <v>-120</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="6">
+        <f>IF(O4&lt;0,-(100-O4)/O4,O4/100+1)</f>
+        <v>1.9090909090909092</v>
+      </c>
+      <c r="S4" s="6">
+        <f>IF(P4&lt;0,-(100-P4)/P4,P4/100+1)</f>
+        <v>1.8333333333333333</v>
+      </c>
+      <c r="T4">
+        <f>1/R4+1/S4</f>
+        <v>1.0692640692640694</v>
+      </c>
+    </row>
+    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>2</v>
       </c>
@@ -7289,8 +7355,43 @@
       <c r="H5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>-120</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L29" si="0">K6</f>
+        <v>-130</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M28" si="1">IF(J5/2=INT(J5/2),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>-130</v>
+      </c>
+      <c r="P5">
+        <v>100</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5" s="6">
+        <f t="shared" ref="R5:R16" si="2">IF(O5&lt;0,-(100-O5)/O5,O5/100+1)</f>
+        <v>1.7692307692307692</v>
+      </c>
+      <c r="S5" s="6">
+        <f t="shared" ref="S5:S16" si="3">IF(P5&lt;0,-(100-P5)/P5,P5/100+1)</f>
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <f t="shared" ref="T5:T16" si="4">1/R5+1/S5</f>
+        <v>1.0652173913043479</v>
+      </c>
+    </row>
+    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>3</v>
       </c>
@@ -7303,48 +7404,332 @@
       <c r="H6" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>-130</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>-370</v>
+      </c>
+      <c r="P6">
+        <v>255</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6" s="6">
+        <f t="shared" si="2"/>
+        <v>1.2702702702702702</v>
+      </c>
+      <c r="S6" s="6">
+        <f t="shared" si="3"/>
+        <v>3.55</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="4"/>
+        <v>1.0689241833982619</v>
+      </c>
+    </row>
+    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>4</v>
       </c>
       <c r="D7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>100</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>-370</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>-175</v>
+      </c>
+      <c r="P7">
+        <v>130</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="S7" s="6">
+        <f t="shared" si="3"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="4"/>
+        <v>1.0711462450592886</v>
+      </c>
+    </row>
+    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>5</v>
       </c>
       <c r="D8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>-370</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>255</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>-105</v>
+      </c>
+      <c r="P8">
+        <v>-125</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8" s="6">
+        <f t="shared" si="2"/>
+        <v>1.9523809523809523</v>
+      </c>
+      <c r="S8" s="6">
+        <f t="shared" si="3"/>
+        <v>1.8</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="4"/>
+        <v>1.0677506775067751</v>
+      </c>
+    </row>
+    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>6</v>
       </c>
       <c r="D9" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>255</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>-175</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>-130</v>
+      </c>
+      <c r="P9">
+        <v>100</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9" s="6">
+        <f t="shared" si="2"/>
+        <v>1.7692307692307692</v>
+      </c>
+      <c r="S9" s="6">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="4"/>
+        <v>1.0652173913043479</v>
+      </c>
+    </row>
+    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>7</v>
       </c>
       <c r="D10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>-175</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>130</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>-400</v>
+      </c>
+      <c r="P10">
+        <v>270</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="6">
+        <f t="shared" si="2"/>
+        <v>1.25</v>
+      </c>
+      <c r="S10" s="6">
+        <f t="shared" si="3"/>
+        <v>3.7</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="4"/>
+        <v>1.0702702702702702</v>
+      </c>
+    </row>
+    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>7</v>
+      </c>
+      <c r="K11">
+        <v>130</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>-105</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>110</v>
+      </c>
+      <c r="P11">
+        <v>-145</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11" s="6">
+        <f t="shared" si="2"/>
+        <v>2.1</v>
+      </c>
+      <c r="S11" s="6">
+        <f t="shared" si="3"/>
+        <v>1.6896551724137931</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="4"/>
+        <v>1.0680272108843538</v>
+      </c>
+    </row>
+    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>8</v>
+      </c>
+      <c r="K12">
+        <v>-105</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>-125</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>-1400</v>
+      </c>
+      <c r="P12">
+        <v>650</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12" s="6">
+        <f t="shared" si="2"/>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="S12" s="6">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="4"/>
+        <v>1.0666666666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>9</v>
+      </c>
+      <c r="K13">
+        <v>-125</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>-130</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>-210</v>
+      </c>
+      <c r="P13">
+        <v>155</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="6">
+        <f t="shared" si="2"/>
+        <v>1.4761904761904763</v>
+      </c>
+      <c r="S13" s="6">
+        <f t="shared" si="3"/>
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="4"/>
+        <v>1.0695762175838077</v>
+      </c>
+    </row>
+    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>0</v>
       </c>
@@ -7360,8 +7745,43 @@
       <c r="H14">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14">
+        <v>-130</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>-185</v>
+      </c>
+      <c r="P14">
+        <v>135</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14" s="6">
+        <f t="shared" si="2"/>
+        <v>1.5405405405405406</v>
+      </c>
+      <c r="S14" s="6">
+        <f t="shared" si="3"/>
+        <v>2.35</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="4"/>
+        <v>1.0746547219111608</v>
+      </c>
+    </row>
+    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>1</v>
       </c>
@@ -7377,8 +7797,43 @@
       <c r="H15">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>11</v>
+      </c>
+      <c r="K15">
+        <v>100</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>-400</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O15">
+        <v>100</v>
+      </c>
+      <c r="P15">
+        <v>-130</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15" s="6">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="S15" s="6">
+        <f t="shared" si="3"/>
+        <v>1.7692307692307692</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="4"/>
+        <v>1.0652173913043479</v>
+      </c>
+    </row>
+    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>2</v>
       </c>
@@ -7394,8 +7849,43 @@
       <c r="H16">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <v>-400</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>-170</v>
+      </c>
+      <c r="P16">
+        <v>125</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16" s="6">
+        <f t="shared" si="2"/>
+        <v>1.588235294117647</v>
+      </c>
+      <c r="S16" s="6">
+        <f t="shared" si="3"/>
+        <v>2.25</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="4"/>
+        <v>1.074074074074074</v>
+      </c>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C17">
         <v>3</v>
       </c>
@@ -7411,8 +7901,31 @@
       <c r="H17">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>13</v>
+      </c>
+      <c r="K17">
+        <v>270</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O17">
+        <v>-120</v>
+      </c>
+      <c r="P17">
+        <v>-130</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C18">
         <v>4</v>
       </c>
@@ -7428,8 +7941,35 @@
       <c r="H18">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>14</v>
+      </c>
+      <c r="K18">
+        <v>110</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>-145</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>100</v>
+      </c>
+      <c r="P18">
+        <v>-370</v>
+      </c>
+      <c r="Q18">
+        <v>1</v>
+      </c>
+      <c r="T18">
+        <f>AVERAGE(T4:T17)</f>
+        <v>1.0689235777332133</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>5</v>
       </c>
@@ -7445,8 +7985,31 @@
       <c r="H19">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>15</v>
+      </c>
+      <c r="K19">
+        <v>-145</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>-1400</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O19">
+        <v>255</v>
+      </c>
+      <c r="P19">
+        <v>-175</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20">
         <v>6</v>
       </c>
@@ -7462,16 +8025,252 @@
       <c r="H20">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="K20">
+        <v>-1400</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>650</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>130</v>
+      </c>
+      <c r="P20">
+        <v>-105</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21">
         <v>7</v>
       </c>
       <c r="D21" t="s">
         <v>118</v>
       </c>
+      <c r="J21">
+        <v>17</v>
+      </c>
+      <c r="K21">
+        <v>650</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>-210</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O21">
+        <v>-125</v>
+      </c>
+      <c r="P21">
+        <v>-130</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>-210</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>155</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>100</v>
+      </c>
+      <c r="P22">
+        <v>-400</v>
+      </c>
+      <c r="Q22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>19</v>
+      </c>
+      <c r="K23">
+        <v>155</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>-185</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>270</v>
+      </c>
+      <c r="P23">
+        <v>110</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J24">
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>-185</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>135</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>-145</v>
+      </c>
+      <c r="P24">
+        <v>-1400</v>
+      </c>
+      <c r="Q24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J25">
+        <v>21</v>
+      </c>
+      <c r="K25">
+        <v>135</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>650</v>
+      </c>
+      <c r="P25">
+        <v>-210</v>
+      </c>
+      <c r="Q25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J26">
+        <v>22</v>
+      </c>
+      <c r="K26">
+        <v>100</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>-130</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>155</v>
+      </c>
+      <c r="P26">
+        <v>-185</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J27">
+        <v>23</v>
+      </c>
+      <c r="K27">
+        <v>-130</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>-170</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>135</v>
+      </c>
+      <c r="P27">
+        <v>100</v>
+      </c>
+      <c r="Q27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J28">
+        <v>24</v>
+      </c>
+      <c r="K28">
+        <v>-170</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>-130</v>
+      </c>
+      <c r="P28">
+        <v>-170</v>
+      </c>
+      <c r="Q28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="J29">
+        <v>25</v>
+      </c>
+      <c r="K29">
+        <v>125</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="O4:Q28">
+    <sortCondition ref="Q4:Q28"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/CreateSportEthInputs.xlsx
+++ b/docs/CreateSportEthInputs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth0\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8E9C1C-C6D2-4F66-B3F1-20808A014C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97692AD-9F34-4CAA-AB6A-BC21DCB91CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30315" yWindow="1410" windowWidth="23670" windowHeight="11295" activeTab="2" xr2:uid="{1230EDBB-7CF7-4CB6-8A8B-436EE42A5ED4}"/>
+    <workbookView xWindow="29070" yWindow="1620" windowWidth="24135" windowHeight="13305" xr2:uid="{1230EDBB-7CF7-4CB6-8A8B-436EE42A5ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="initData" sheetId="3" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="128">
   <si>
     <t>ProbWin</t>
   </si>
@@ -457,6 +457,9 @@
   </si>
   <si>
     <t>odds1</t>
+  </si>
+  <si>
+    <t>Inputs</t>
   </si>
 </sst>
 </file>
@@ -557,7 +560,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -645,6 +648,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -652,7 +670,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -790,6 +808,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1108,10 +1127,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD82542B-8AD5-492F-8D04-AD353CA34773}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:AG35"/>
+  <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1125,7 +1144,7 @@
     <col min="8" max="8" width="6.5703125" customWidth="1"/>
     <col min="9" max="9" width="17.42578125" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
     <col min="12" max="12" width="10.5703125" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
     <col min="14" max="14" width="12.85546875" customWidth="1"/>
@@ -1346,23 +1365,23 @@
         <v>1681405200</v>
       </c>
       <c r="K4" s="32">
-        <f t="shared" ref="K4:K35" si="1">Z4</f>
-        <v>65.78947368421052</v>
+        <f>INT(Z4)</f>
+        <v>65</v>
       </c>
       <c r="M4" s="3" t="str">
-        <f t="shared" ref="M4:M35" si="2">IF(E4&lt;=F4,C4,D4)</f>
+        <f t="shared" ref="M4:M35" si="1">IF(E4&lt;=F4,C4,D4)</f>
         <v>ARI</v>
       </c>
       <c r="N4" s="3" t="str">
-        <f t="shared" ref="N4:N35" si="3">IF(E4&gt;F4,C4,D4)</f>
+        <f t="shared" ref="N4:N35" si="2">IF(E4&gt;F4,C4,D4)</f>
         <v>LAC</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" ref="O4:O35" si="4">IF(E4&lt;=F4,E4,F4)</f>
+        <f t="shared" ref="O4:O35" si="3">IF(E4&lt;=F4,E4,F4)</f>
         <v>-1600</v>
       </c>
       <c r="P4" s="3">
-        <f t="shared" ref="P4:P35" si="5">IF(E4&gt;F4,E4,F4)</f>
+        <f t="shared" ref="P4:P35" si="4">IF(E4&gt;F4,E4,F4)</f>
         <v>750</v>
       </c>
       <c r="Q4" s="6">
@@ -1374,11 +1393,11 @@
         <v>8.5</v>
       </c>
       <c r="S4" s="48">
-        <f t="shared" ref="S4:S24" si="6">1/Q4</f>
+        <f t="shared" ref="S4:S24" si="5">1/Q4</f>
         <v>0.94117647058823528</v>
       </c>
       <c r="T4" s="49">
-        <f t="shared" ref="T4:T24" si="7">1/R4</f>
+        <f t="shared" ref="T4:T24" si="6">1/R4</f>
         <v>0.11764705882352941</v>
       </c>
       <c r="U4" s="2">
@@ -1459,27 +1478,27 @@
         <v>"NFL:LAR:ATL"</v>
       </c>
       <c r="J5" s="34">
-        <f t="shared" ref="J5:J35" si="8">1627794000+(G5-44409)*86400</f>
+        <f t="shared" ref="J5:J35" si="7">1627794000+(G5-44409)*86400</f>
         <v>1681408799.9999998</v>
       </c>
       <c r="K5" s="17">
+        <f t="shared" ref="K5:K35" si="8">INT(Z5)</f>
+        <v>948</v>
+      </c>
+      <c r="M5" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>948.31673779042183</v>
-      </c>
-      <c r="M5" s="3" t="str">
+        <v>LAR</v>
+      </c>
+      <c r="N5" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>LAR</v>
-      </c>
-      <c r="N5" s="3" t="str">
+        <v>ATL</v>
+      </c>
+      <c r="O5" s="3">
         <f t="shared" si="3"/>
-        <v>ATL</v>
-      </c>
-      <c r="O5" s="3">
+        <v>-111</v>
+      </c>
+      <c r="P5" s="3">
         <f t="shared" si="4"/>
-        <v>-111</v>
-      </c>
-      <c r="P5" s="3">
-        <f t="shared" si="5"/>
         <v>-109</v>
       </c>
       <c r="Q5" s="6">
@@ -1576,27 +1595,27 @@
         <v>"NFL:BAL:MIA"</v>
       </c>
       <c r="J6" s="34">
+        <f t="shared" si="7"/>
+        <v>1681412399.9999995</v>
+      </c>
+      <c r="K6" s="17">
         <f t="shared" si="8"/>
-        <v>1681412399.9999995</v>
-      </c>
-      <c r="K6" s="17">
+        <v>631</v>
+      </c>
+      <c r="M6" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>631.57894736842093</v>
-      </c>
-      <c r="M6" s="3" t="str">
+        <v>BAL</v>
+      </c>
+      <c r="N6" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>BAL</v>
-      </c>
-      <c r="N6" s="3" t="str">
+        <v>MIA</v>
+      </c>
+      <c r="O6" s="3">
         <f t="shared" si="3"/>
-        <v>MIA</v>
-      </c>
-      <c r="O6" s="3">
+        <v>-166.66666666666666</v>
+      </c>
+      <c r="P6" s="3">
         <f t="shared" si="4"/>
-        <v>-166.66666666666666</v>
-      </c>
-      <c r="P6" s="3">
-        <f t="shared" si="5"/>
         <v>135.92753623188406</v>
       </c>
       <c r="Q6" s="6">
@@ -1608,11 +1627,11 @@
         <v>2.3592753623188409</v>
       </c>
       <c r="S6" s="48">
+        <f t="shared" si="5"/>
+        <v>0.625</v>
+      </c>
+      <c r="T6" s="49">
         <f t="shared" si="6"/>
-        <v>0.625</v>
-      </c>
-      <c r="T6" s="49">
-        <f t="shared" si="7"/>
         <v>0.42385895939554019</v>
       </c>
       <c r="U6" s="2">
@@ -1693,27 +1712,27 @@
         <v>"NFL:BUF:MIN"</v>
       </c>
       <c r="J7" s="34">
+        <f t="shared" si="7"/>
+        <v>1681415999.9999993</v>
+      </c>
+      <c r="K7" s="17">
         <f t="shared" si="8"/>
-        <v>1681415999.9999993</v>
-      </c>
-      <c r="K7" s="17">
+        <v>842</v>
+      </c>
+      <c r="M7" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>842.10526315789468</v>
-      </c>
-      <c r="M7" s="3" t="str">
+        <v>BUF</v>
+      </c>
+      <c r="N7" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>BUF</v>
-      </c>
-      <c r="N7" s="3" t="str">
+        <v>MIN</v>
+      </c>
+      <c r="O7" s="3">
         <f t="shared" si="3"/>
-        <v>MIN</v>
-      </c>
-      <c r="O7" s="3">
+        <v>-125</v>
+      </c>
+      <c r="P7" s="3">
         <f t="shared" si="4"/>
-        <v>-125</v>
-      </c>
-      <c r="P7" s="3">
-        <f t="shared" si="5"/>
         <v>103.35955056179776</v>
       </c>
       <c r="Q7" s="6">
@@ -1725,11 +1744,11 @@
         <v>2.0335955056179778</v>
       </c>
       <c r="S7" s="48">
+        <f t="shared" si="5"/>
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="T7" s="49">
         <f t="shared" si="6"/>
-        <v>0.55555555555555558</v>
-      </c>
-      <c r="T7" s="49">
-        <f t="shared" si="7"/>
         <v>0.49173987513122269</v>
       </c>
       <c r="U7" s="2">
@@ -1810,23 +1829,23 @@
         <v>"NFL:CAR:NE"</v>
       </c>
       <c r="J8" s="34">
+        <f t="shared" si="7"/>
+        <v>1681491600</v>
+      </c>
+      <c r="K8" s="17">
         <f t="shared" si="8"/>
-        <v>1681491600</v>
-      </c>
-      <c r="K8" s="17">
+        <v>956</v>
+      </c>
+      <c r="M8" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>956.93779904306223</v>
-      </c>
-      <c r="M8" s="3" t="str">
+        <v>CAR</v>
+      </c>
+      <c r="N8" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>CAR</v>
-      </c>
-      <c r="N8" s="3" t="str">
+        <v>NE</v>
+      </c>
+      <c r="O8" s="3">
         <f t="shared" si="3"/>
-        <v>NE</v>
-      </c>
-      <c r="O8" s="3">
-        <f t="shared" si="4"/>
         <v>-110</v>
       </c>
       <c r="P8" s="3">
@@ -1842,11 +1861,11 @@
         <v>1.911001001001001</v>
       </c>
       <c r="S8" s="48">
+        <f t="shared" si="5"/>
+        <v>0.52380952380952384</v>
+      </c>
+      <c r="T8" s="49">
         <f t="shared" si="6"/>
-        <v>0.52380952380952384</v>
-      </c>
-      <c r="T8" s="49">
-        <f t="shared" si="7"/>
         <v>0.5232859634695064</v>
       </c>
       <c r="U8" s="2">
@@ -1927,27 +1946,27 @@
         <v>"NFL:NO:CHI"</v>
       </c>
       <c r="J9" s="34">
+        <f t="shared" si="7"/>
+        <v>1681495199.9999998</v>
+      </c>
+      <c r="K9" s="17">
         <f t="shared" si="8"/>
-        <v>1681495199.9999998</v>
-      </c>
-      <c r="K9" s="17">
+        <v>1042</v>
+      </c>
+      <c r="M9" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>1042.2094841063054</v>
-      </c>
-      <c r="M9" s="3" t="str">
+        <v>NO</v>
+      </c>
+      <c r="N9" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>NO</v>
-      </c>
-      <c r="N9" s="3" t="str">
+        <v>CHI</v>
+      </c>
+      <c r="O9" s="3">
         <f t="shared" si="3"/>
-        <v>CHI</v>
-      </c>
-      <c r="O9" s="3">
+        <v>-101</v>
+      </c>
+      <c r="P9" s="3">
         <f t="shared" si="4"/>
-        <v>-101</v>
-      </c>
-      <c r="P9" s="3">
-        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="Q9" s="6">
@@ -1959,11 +1978,11 @@
         <v>2.1</v>
       </c>
       <c r="S9" s="48">
+        <f t="shared" si="5"/>
+        <v>0.50248756218905477</v>
+      </c>
+      <c r="T9" s="49">
         <f t="shared" si="6"/>
-        <v>0.50248756218905477</v>
-      </c>
-      <c r="T9" s="49">
-        <f t="shared" si="7"/>
         <v>0.47619047619047616</v>
       </c>
       <c r="U9" s="2">
@@ -2044,27 +2063,27 @@
         <v>"NFL:NYG:CIN"</v>
       </c>
       <c r="J10" s="34">
+        <f t="shared" si="7"/>
+        <v>1681498799.9999995</v>
+      </c>
+      <c r="K10" s="17">
         <f t="shared" si="8"/>
-        <v>1681498799.9999995</v>
-      </c>
-      <c r="K10" s="17">
+        <v>690</v>
+      </c>
+      <c r="M10" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>690.80911233307165</v>
-      </c>
-      <c r="M10" s="3" t="str">
+        <v>NYG</v>
+      </c>
+      <c r="N10" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>NYG</v>
-      </c>
-      <c r="N10" s="3" t="str">
+        <v>CIN</v>
+      </c>
+      <c r="O10" s="3">
         <f t="shared" si="3"/>
-        <v>CIN</v>
-      </c>
-      <c r="O10" s="3">
+        <v>-152.37662042301568</v>
+      </c>
+      <c r="P10" s="3">
         <f t="shared" si="4"/>
-        <v>-152.37662042301568</v>
-      </c>
-      <c r="P10" s="3">
-        <f t="shared" si="5"/>
         <v>125</v>
       </c>
       <c r="Q10" s="6">
@@ -2076,11 +2095,11 @@
         <v>2.25</v>
       </c>
       <c r="S10" s="48">
+        <f t="shared" si="5"/>
+        <v>0.60376678381544557</v>
+      </c>
+      <c r="T10" s="49">
         <f t="shared" si="6"/>
-        <v>0.60376678381544557</v>
-      </c>
-      <c r="T10" s="49">
-        <f t="shared" si="7"/>
         <v>0.44444444444444442</v>
       </c>
       <c r="U10" s="2">
@@ -2162,28 +2181,28 @@
         <v>"NFL:NYJ:CLE"</v>
       </c>
       <c r="J11" s="34">
+        <f t="shared" si="7"/>
+        <v>1681502399.9999993</v>
+      </c>
+      <c r="K11" s="17">
         <f t="shared" si="8"/>
-        <v>1681502399.9999993</v>
-      </c>
-      <c r="K11" s="17">
-        <f t="shared" si="1"/>
-        <v>567.29559748427653</v>
+        <v>567</v>
       </c>
       <c r="L11"/>
       <c r="M11" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>NYJ</v>
+      </c>
+      <c r="N11" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>NYJ</v>
-      </c>
-      <c r="N11" s="3" t="str">
+        <v>CLE</v>
+      </c>
+      <c r="O11" s="3">
         <f t="shared" si="3"/>
-        <v>CLE</v>
-      </c>
-      <c r="O11" s="3">
+        <v>-185.55257322908156</v>
+      </c>
+      <c r="P11" s="3">
         <f t="shared" si="4"/>
-        <v>-185.55257322908156</v>
-      </c>
-      <c r="P11" s="3">
-        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="Q11" s="6">
@@ -2195,11 +2214,11 @@
         <v>2.5</v>
       </c>
       <c r="S11" s="38">
+        <f t="shared" si="5"/>
+        <v>0.64980179002002547</v>
+      </c>
+      <c r="T11" s="39">
         <f t="shared" si="6"/>
-        <v>0.64980179002002547</v>
-      </c>
-      <c r="T11" s="39">
-        <f t="shared" si="7"/>
         <v>0.4</v>
       </c>
       <c r="U11" s="2">
@@ -2280,27 +2299,27 @@
         <v>"NFL:OAK:DAL"</v>
       </c>
       <c r="J12" s="34">
+        <f t="shared" si="7"/>
+        <v>1681578000</v>
+      </c>
+      <c r="K12" s="17">
         <f t="shared" si="8"/>
-        <v>1681578000</v>
-      </c>
-      <c r="K12" s="17">
+        <v>477</v>
+      </c>
+      <c r="M12" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>477.345537757437</v>
-      </c>
-      <c r="M12" s="3" t="str">
+        <v>OAK</v>
+      </c>
+      <c r="N12" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>OAK</v>
-      </c>
-      <c r="N12" s="3" t="str">
+        <v>DAL</v>
+      </c>
+      <c r="O12" s="3">
         <f t="shared" si="3"/>
-        <v>DAL</v>
-      </c>
-      <c r="O12" s="3">
+        <v>-220.51773729626078</v>
+      </c>
+      <c r="P12" s="3">
         <f t="shared" si="4"/>
-        <v>-220.51773729626078</v>
-      </c>
-      <c r="P12" s="3">
-        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="Q12" s="6">
@@ -2312,11 +2331,11 @@
         <v>2.75</v>
       </c>
       <c r="S12" s="48">
+        <f t="shared" si="5"/>
+        <v>0.68800478612025129</v>
+      </c>
+      <c r="T12" s="49">
         <f t="shared" si="6"/>
-        <v>0.68800478612025129</v>
-      </c>
-      <c r="T12" s="49">
-        <f t="shared" si="7"/>
         <v>0.36363636363636365</v>
       </c>
       <c r="U12" s="2">
@@ -2397,27 +2416,27 @@
         <v>"NFL:PHI:DEN"</v>
       </c>
       <c r="J13" s="34">
+        <f t="shared" si="7"/>
+        <v>1681581599.9999998</v>
+      </c>
+      <c r="K13" s="17">
         <f t="shared" si="8"/>
-        <v>1681581599.9999998</v>
-      </c>
-      <c r="K13" s="17">
+        <v>408</v>
+      </c>
+      <c r="M13" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>408.91463107529586</v>
-      </c>
-      <c r="M13" s="3" t="str">
+        <v>PHI</v>
+      </c>
+      <c r="N13" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>PHI</v>
-      </c>
-      <c r="N13" s="3" t="str">
+        <v>DEN</v>
+      </c>
+      <c r="O13" s="3">
         <f t="shared" si="3"/>
-        <v>DEN</v>
-      </c>
-      <c r="O13" s="3">
+        <v>-257.42086463850228</v>
+      </c>
+      <c r="P13" s="3">
         <f t="shared" si="4"/>
-        <v>-257.42086463850228</v>
-      </c>
-      <c r="P13" s="3">
-        <f t="shared" si="5"/>
         <v>200</v>
       </c>
       <c r="Q13" s="6">
@@ -2429,11 +2448,11 @@
         <v>3</v>
       </c>
       <c r="S13" s="48">
+        <f t="shared" si="5"/>
+        <v>0.72021778834556671</v>
+      </c>
+      <c r="T13" s="49">
         <f t="shared" si="6"/>
-        <v>0.72021778834556671</v>
-      </c>
-      <c r="T13" s="49">
-        <f t="shared" si="7"/>
         <v>0.33333333333333331</v>
       </c>
       <c r="U13" s="2">
@@ -2514,27 +2533,27 @@
         <v>"NFL:PIT:DET"</v>
       </c>
       <c r="J14" s="34">
+        <f t="shared" si="7"/>
+        <v>1681585199.9999995</v>
+      </c>
+      <c r="K14" s="17">
         <f t="shared" si="8"/>
-        <v>1681585199.9999995</v>
-      </c>
-      <c r="K14" s="17">
+        <v>355</v>
+      </c>
+      <c r="M14" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>355.10571300044984</v>
-      </c>
-      <c r="M14" s="3" t="str">
+        <v>PIT</v>
+      </c>
+      <c r="N14" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>PIT</v>
-      </c>
-      <c r="N14" s="3" t="str">
+        <v>DET</v>
+      </c>
+      <c r="O14" s="3">
         <f t="shared" si="3"/>
-        <v>DET</v>
-      </c>
-      <c r="O14" s="3">
+        <v>-296.42766658221433</v>
+      </c>
+      <c r="P14" s="3">
         <f t="shared" si="4"/>
-        <v>-296.42766658221433</v>
-      </c>
-      <c r="P14" s="3">
-        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="Q14" s="6">
@@ -2546,11 +2565,11 @@
         <v>3.25</v>
       </c>
       <c r="S14" s="48">
+        <f t="shared" si="5"/>
+        <v>0.74774717198184959</v>
+      </c>
+      <c r="T14" s="49">
         <f t="shared" si="6"/>
-        <v>0.74774717198184959</v>
-      </c>
-      <c r="T14" s="49">
-        <f t="shared" si="7"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="U14" s="2">
@@ -2631,27 +2650,27 @@
         <v>"CFB:Cincinnati:OhioState"</v>
       </c>
       <c r="J15" s="34">
+        <f t="shared" si="7"/>
+        <v>1681588799.9999993</v>
+      </c>
+      <c r="K15" s="17">
         <f t="shared" si="8"/>
-        <v>1681588799.9999993</v>
-      </c>
-      <c r="K15" s="17">
+        <v>311</v>
+      </c>
+      <c r="M15" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>311.68461694777488</v>
-      </c>
-      <c r="M15" s="3" t="str">
+        <v>Cincinnati</v>
+      </c>
+      <c r="N15" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Cincinnati</v>
-      </c>
-      <c r="N15" s="3" t="str">
+        <v>OhioState</v>
+      </c>
+      <c r="O15" s="3">
         <f t="shared" si="3"/>
-        <v>OhioState</v>
-      </c>
-      <c r="O15" s="3">
+        <v>-337.72330160385968</v>
+      </c>
+      <c r="P15" s="3">
         <f t="shared" si="4"/>
-        <v>-337.72330160385968</v>
-      </c>
-      <c r="P15" s="3">
-        <f t="shared" si="5"/>
         <v>250</v>
       </c>
       <c r="Q15" s="6">
@@ -2663,11 +2682,11 @@
         <v>3.5</v>
       </c>
       <c r="S15" s="48">
+        <f t="shared" si="5"/>
+        <v>0.77154517560844826</v>
+      </c>
+      <c r="T15" s="49">
         <f t="shared" si="6"/>
-        <v>0.77154517560844826</v>
-      </c>
-      <c r="T15" s="49">
-        <f t="shared" si="7"/>
         <v>0.2857142857142857</v>
       </c>
       <c r="U15" s="2">
@@ -2748,27 +2767,27 @@
         <v>"CFB:Kentucky:Alabama"</v>
       </c>
       <c r="J16" s="34">
+        <f t="shared" si="7"/>
+        <v>1681664400</v>
+      </c>
+      <c r="K16" s="17">
         <f t="shared" si="8"/>
-        <v>1681664400</v>
-      </c>
-      <c r="K16" s="17">
+        <v>275</v>
+      </c>
+      <c r="M16" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>275.90808005930336</v>
-      </c>
-      <c r="M16" s="3" t="str">
+        <v>Kentucky</v>
+      </c>
+      <c r="N16" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Kentucky</v>
-      </c>
-      <c r="N16" s="3" t="str">
+        <v>Alabama</v>
+      </c>
+      <c r="O16" s="3">
         <f t="shared" si="3"/>
-        <v>Alabama</v>
-      </c>
-      <c r="O16" s="3">
+        <v>-381.51531434712518</v>
+      </c>
+      <c r="P16" s="3">
         <f t="shared" si="4"/>
-        <v>-381.51531434712518</v>
-      </c>
-      <c r="P16" s="3">
-        <f t="shared" si="5"/>
         <v>275</v>
       </c>
       <c r="Q16" s="6">
@@ -2780,11 +2799,11 @@
         <v>3.75</v>
       </c>
       <c r="S16" s="48">
+        <f t="shared" si="5"/>
+        <v>0.79232228545921202</v>
+      </c>
+      <c r="T16" s="49">
         <f t="shared" si="6"/>
-        <v>0.79232228545921202</v>
-      </c>
-      <c r="T16" s="49">
-        <f t="shared" si="7"/>
         <v>0.26666666666666666</v>
       </c>
       <c r="U16" s="2">
@@ -2865,27 +2884,27 @@
         <v>"CFB:Texas:Oregon"</v>
       </c>
       <c r="J17" s="34">
+        <f t="shared" si="7"/>
+        <v>1681667999.9999998</v>
+      </c>
+      <c r="K17" s="17">
         <f t="shared" si="8"/>
-        <v>1681667999.9999998</v>
-      </c>
-      <c r="K17" s="17">
+        <v>245</v>
+      </c>
+      <c r="M17" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>245.92062680974263</v>
-      </c>
-      <c r="M17" s="3" t="str">
+        <v>Texas</v>
+      </c>
+      <c r="N17" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Texas</v>
-      </c>
-      <c r="N17" s="3" t="str">
+        <v>Oregon</v>
+      </c>
+      <c r="O17" s="3">
         <f t="shared" si="3"/>
-        <v>Oregon</v>
-      </c>
-      <c r="O17" s="3">
+        <v>-428.03712425543705</v>
+      </c>
+      <c r="P17" s="3">
         <f t="shared" si="4"/>
-        <v>-428.03712425543705</v>
-      </c>
-      <c r="P17" s="3">
-        <f t="shared" si="5"/>
         <v>300</v>
       </c>
       <c r="Q17" s="6">
@@ -2897,11 +2916,11 @@
         <v>4</v>
       </c>
       <c r="S17" s="48">
+        <f t="shared" si="5"/>
+        <v>0.81061937616411772</v>
+      </c>
+      <c r="T17" s="49">
         <f t="shared" si="6"/>
-        <v>0.81061937616411772</v>
-      </c>
-      <c r="T17" s="49">
-        <f t="shared" si="7"/>
         <v>0.25</v>
       </c>
       <c r="U17" s="2">
@@ -2982,27 +3001,27 @@
         <v>"CFB:LSU:USC"</v>
       </c>
       <c r="J18" s="34">
+        <f t="shared" si="7"/>
+        <v>1681671599.9999995</v>
+      </c>
+      <c r="K18" s="17">
         <f t="shared" si="8"/>
-        <v>1681671599.9999995</v>
-      </c>
-      <c r="K18" s="17">
+        <v>220</v>
+      </c>
+      <c r="M18" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>220.4223132682005</v>
-      </c>
-      <c r="M18" s="3" t="str">
+        <v>LSU</v>
+      </c>
+      <c r="N18" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>LSU</v>
-      </c>
-      <c r="N18" s="3" t="str">
+        <v>USC</v>
+      </c>
+      <c r="O18" s="3">
         <f t="shared" si="3"/>
-        <v>USC</v>
-      </c>
-      <c r="O18" s="3">
+        <v>-477.55218758936235</v>
+      </c>
+      <c r="P18" s="3">
         <f t="shared" si="4"/>
-        <v>-477.55218758936235</v>
-      </c>
-      <c r="P18" s="3">
-        <f t="shared" si="5"/>
         <v>325</v>
       </c>
       <c r="Q18" s="6">
@@ -3014,11 +3033,11 @@
         <v>4.25</v>
       </c>
       <c r="S18" s="48">
+        <f t="shared" si="5"/>
+        <v>0.82685547358518585</v>
+      </c>
+      <c r="T18" s="49">
         <f t="shared" si="6"/>
-        <v>0.82685547358518585</v>
-      </c>
-      <c r="T18" s="49">
-        <f t="shared" si="7"/>
         <v>0.23529411764705882</v>
       </c>
       <c r="U18" s="2">
@@ -3099,27 +3118,27 @@
         <v>"CFB:Auburn:UCLA"</v>
       </c>
       <c r="J19" s="34">
+        <f t="shared" si="7"/>
+        <v>1681675199.9999993</v>
+      </c>
+      <c r="K19" s="17">
         <f t="shared" si="8"/>
-        <v>1681675199.9999993</v>
-      </c>
-      <c r="K19" s="17">
+        <v>198</v>
+      </c>
+      <c r="M19" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>198.47529687729065</v>
-      </c>
-      <c r="M19" s="3" t="str">
+        <v>Auburn</v>
+      </c>
+      <c r="N19" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Auburn</v>
-      </c>
-      <c r="N19" s="3" t="str">
+        <v>UCLA</v>
+      </c>
+      <c r="O19" s="3">
         <f t="shared" si="3"/>
-        <v>UCLA</v>
-      </c>
-      <c r="O19" s="3">
+        <v>-530.35898951100614</v>
+      </c>
+      <c r="P19" s="3">
         <f t="shared" si="4"/>
-        <v>-530.35898951100614</v>
-      </c>
-      <c r="P19" s="3">
-        <f t="shared" si="5"/>
         <v>350</v>
       </c>
       <c r="Q19" s="6">
@@ -3131,11 +3150,11 @@
         <v>4.5</v>
       </c>
       <c r="S19" s="48">
+        <f t="shared" si="5"/>
+        <v>0.84136023811197835</v>
+      </c>
+      <c r="T19" s="49">
         <f t="shared" si="6"/>
-        <v>0.84136023811197835</v>
-      </c>
-      <c r="T19" s="49">
-        <f t="shared" si="7"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="U19" s="2">
@@ -3216,27 +3235,27 @@
         <v>"MMA:Kattar:Holloway"</v>
       </c>
       <c r="J20" s="34">
+        <f t="shared" si="7"/>
+        <v>1681750800</v>
+      </c>
+      <c r="K20" s="17">
         <f t="shared" si="8"/>
-        <v>1681750800</v>
-      </c>
-      <c r="K20" s="17">
+        <v>179</v>
+      </c>
+      <c r="M20" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>179.38596491228068</v>
-      </c>
-      <c r="M20" s="3" t="str">
+        <v>Kattar</v>
+      </c>
+      <c r="N20" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Kattar</v>
-      </c>
-      <c r="N20" s="3" t="str">
+        <v>Holloway</v>
+      </c>
+      <c r="O20" s="3">
         <f t="shared" si="3"/>
-        <v>Holloway</v>
-      </c>
-      <c r="O20" s="3">
+        <v>-586.79706601466989</v>
+      </c>
+      <c r="P20" s="3">
         <f t="shared" si="4"/>
-        <v>-586.79706601466989</v>
-      </c>
-      <c r="P20" s="3">
-        <f t="shared" si="5"/>
         <v>375</v>
       </c>
       <c r="Q20" s="6">
@@ -3248,11 +3267,11 @@
         <v>4.75</v>
       </c>
       <c r="S20" s="48">
+        <f t="shared" si="5"/>
+        <v>0.85439658241367034</v>
+      </c>
+      <c r="T20" s="49">
         <f t="shared" si="6"/>
-        <v>0.85439658241367034</v>
-      </c>
-      <c r="T20" s="49">
-        <f t="shared" si="7"/>
         <v>0.21052631578947367</v>
       </c>
       <c r="U20" s="2">
@@ -3333,27 +3352,27 @@
         <v>"MMA:Li:Ponzinibbio"</v>
       </c>
       <c r="J21" s="34">
+        <f t="shared" si="7"/>
+        <v>1681754399.9999998</v>
+      </c>
+      <c r="K21" s="17">
         <f t="shared" si="8"/>
-        <v>1681754399.9999998</v>
-      </c>
-      <c r="K21" s="17">
+        <v>162</v>
+      </c>
+      <c r="M21" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>162.63029211169729</v>
-      </c>
-      <c r="M21" s="3" t="str">
+        <v>Li</v>
+      </c>
+      <c r="N21" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Li</v>
-      </c>
-      <c r="N21" s="3" t="str">
+        <v>Ponzinibbio</v>
+      </c>
+      <c r="O21" s="3">
         <f t="shared" si="3"/>
-        <v>Ponzinibbio</v>
-      </c>
-      <c r="O21" s="3">
+        <v>-647.2543123912011</v>
+      </c>
+      <c r="P21" s="3">
         <f t="shared" si="4"/>
-        <v>-647.2543123912011</v>
-      </c>
-      <c r="P21" s="3">
-        <f t="shared" si="5"/>
         <v>400</v>
       </c>
       <c r="Q21" s="6">
@@ -3365,11 +3384,11 @@
         <v>5</v>
       </c>
       <c r="S21" s="48">
+        <f t="shared" si="5"/>
+        <v>0.866176750884178</v>
+      </c>
+      <c r="T21" s="49">
         <f t="shared" si="6"/>
-        <v>0.866176750884178</v>
-      </c>
-      <c r="T21" s="49">
-        <f t="shared" si="7"/>
         <v>0.2</v>
       </c>
       <c r="U21" s="2">
@@ -3450,27 +3469,27 @@
         <v>"MMA:Aldrich:Demopoulos"</v>
       </c>
       <c r="J22" s="34">
+        <f t="shared" si="7"/>
+        <v>1681757999.9999995</v>
+      </c>
+      <c r="K22" s="17">
         <f t="shared" si="8"/>
-        <v>1681757999.9999995</v>
-      </c>
-      <c r="K22" s="17">
+        <v>221</v>
+      </c>
+      <c r="M22" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>221.14108801415293</v>
-      </c>
-      <c r="M22" s="3" t="str">
+        <v>Aldrich</v>
+      </c>
+      <c r="N22" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Aldrich</v>
-      </c>
-      <c r="N22" s="3" t="str">
+        <v>Demopoulos</v>
+      </c>
+      <c r="O22" s="3">
         <f t="shared" si="3"/>
-        <v>Demopoulos</v>
-      </c>
-      <c r="O22" s="3">
+        <v>-476</v>
+      </c>
+      <c r="P22" s="3">
         <f t="shared" si="4"/>
-        <v>-476</v>
-      </c>
-      <c r="P22" s="3">
-        <f t="shared" si="5"/>
         <v>352</v>
       </c>
       <c r="Q22" s="6">
@@ -3482,11 +3501,11 @@
         <v>4.5199999999999996</v>
       </c>
       <c r="S22" s="48">
+        <f t="shared" si="5"/>
+        <v>0.82638888888888895</v>
+      </c>
+      <c r="T22" s="49">
         <f t="shared" si="6"/>
-        <v>0.82638888888888895</v>
-      </c>
-      <c r="T22" s="49">
-        <f t="shared" si="7"/>
         <v>0.22123893805309736</v>
       </c>
       <c r="U22" s="2">
@@ -3567,27 +3586,27 @@
         <v>"MMA:Di Chirico:Alhassan"</v>
       </c>
       <c r="J23" s="34">
+        <f t="shared" si="7"/>
+        <v>1681761599.9999993</v>
+      </c>
+      <c r="K23" s="17">
         <f t="shared" si="8"/>
-        <v>1681761599.9999993</v>
-      </c>
-      <c r="K23" s="17">
+        <v>368</v>
+      </c>
+      <c r="M23" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>368.05299963194693</v>
-      </c>
-      <c r="M23" s="3" t="str">
+        <v>Di Chirico</v>
+      </c>
+      <c r="N23" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Di Chirico</v>
-      </c>
-      <c r="N23" s="3" t="str">
+        <v>Alhassan</v>
+      </c>
+      <c r="O23" s="3">
         <f t="shared" si="3"/>
-        <v>Alhassan</v>
-      </c>
-      <c r="O23" s="3">
+        <v>-286</v>
+      </c>
+      <c r="P23" s="3">
         <f t="shared" si="4"/>
-        <v>-286</v>
-      </c>
-      <c r="P23" s="3">
-        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="Q23" s="6">
@@ -3599,11 +3618,11 @@
         <v>3.25</v>
       </c>
       <c r="S23" s="48">
+        <f t="shared" si="5"/>
+        <v>0.74093264248704671</v>
+      </c>
+      <c r="T23" s="49">
         <f t="shared" si="6"/>
-        <v>0.74093264248704671</v>
-      </c>
-      <c r="T23" s="49">
-        <f t="shared" si="7"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="U23" s="2">
@@ -3684,27 +3703,27 @@
         <v>"MMA:Barboza:Chikadze"</v>
       </c>
       <c r="J24" s="34">
+        <f t="shared" si="7"/>
+        <v>1681837200</v>
+      </c>
+      <c r="K24" s="17">
         <f t="shared" si="8"/>
-        <v>1681837200</v>
-      </c>
-      <c r="K24" s="17">
+        <v>915</v>
+      </c>
+      <c r="M24" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>915.33180778032045</v>
-      </c>
-      <c r="M24" s="3" t="str">
+        <v>Barboza</v>
+      </c>
+      <c r="N24" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Barboza</v>
-      </c>
-      <c r="N24" s="3" t="str">
+        <v>Chikadze</v>
+      </c>
+      <c r="O24" s="3">
         <f t="shared" si="3"/>
-        <v>Chikadze</v>
-      </c>
-      <c r="O24" s="3">
+        <v>-115</v>
+      </c>
+      <c r="P24" s="3">
         <f t="shared" si="4"/>
-        <v>-115</v>
-      </c>
-      <c r="P24" s="3">
-        <f t="shared" si="5"/>
         <v>-106</v>
       </c>
       <c r="Q24" s="6">
@@ -3716,11 +3735,11 @@
         <v>1.9433962264150944</v>
       </c>
       <c r="S24" s="48">
+        <f t="shared" si="5"/>
+        <v>0.53488372093023251</v>
+      </c>
+      <c r="T24" s="49">
         <f t="shared" si="6"/>
-        <v>0.53488372093023251</v>
-      </c>
-      <c r="T24" s="49">
-        <f t="shared" si="7"/>
         <v>0.5145631067961165</v>
       </c>
       <c r="U24" s="2">
@@ -3801,27 +3820,27 @@
         <v>"MMA:Emmers:Sabatini"</v>
       </c>
       <c r="J25" s="34">
+        <f t="shared" si="7"/>
+        <v>1681840799.9999998</v>
+      </c>
+      <c r="K25" s="17">
         <f t="shared" si="8"/>
-        <v>1681840799.9999998</v>
-      </c>
-      <c r="K25" s="17">
+        <v>674</v>
+      </c>
+      <c r="M25" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>674.76383265856953</v>
-      </c>
-      <c r="M25" s="3" t="str">
+        <v>Emmers</v>
+      </c>
+      <c r="N25" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Emmers</v>
-      </c>
-      <c r="N25" s="3" t="str">
+        <v>Sabatini</v>
+      </c>
+      <c r="O25" s="3">
         <f t="shared" si="3"/>
-        <v>Sabatini</v>
-      </c>
-      <c r="O25" s="3">
+        <v>-156</v>
+      </c>
+      <c r="P25" s="3">
         <f t="shared" si="4"/>
-        <v>-156</v>
-      </c>
-      <c r="P25" s="3">
-        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="Q25" s="6">
@@ -3918,27 +3937,27 @@
         <v>"MMA:Jacoby:Stewart"</v>
       </c>
       <c r="J26" s="34">
+        <f t="shared" si="7"/>
+        <v>1681844399.9999995</v>
+      </c>
+      <c r="K26" s="17">
         <f t="shared" si="8"/>
-        <v>1681844399.9999995</v>
-      </c>
-      <c r="K26" s="17">
+        <v>537</v>
+      </c>
+      <c r="M26" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>537.05692803437148</v>
-      </c>
-      <c r="M26" s="3" t="str">
+        <v>Jacoby</v>
+      </c>
+      <c r="N26" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Jacoby</v>
-      </c>
-      <c r="N26" s="3" t="str">
+        <v>Stewart</v>
+      </c>
+      <c r="O26" s="3">
         <f t="shared" si="3"/>
-        <v>Stewart</v>
-      </c>
-      <c r="O26" s="3">
+        <v>-196</v>
+      </c>
+      <c r="P26" s="3">
         <f t="shared" si="4"/>
-        <v>-196</v>
-      </c>
-      <c r="P26" s="3">
-        <f t="shared" si="5"/>
         <v>161</v>
       </c>
       <c r="Q26" s="6">
@@ -4035,27 +4054,27 @@
         <v>"MMA:Lee:Rodriguez"</v>
       </c>
       <c r="J27" s="34">
+        <f t="shared" si="7"/>
+        <v>1681847999.9999993</v>
+      </c>
+      <c r="K27" s="17">
         <f t="shared" si="8"/>
-        <v>1681847999.9999993</v>
-      </c>
-      <c r="K27" s="17">
+        <v>716</v>
+      </c>
+      <c r="M27" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>716.07590404582891</v>
-      </c>
-      <c r="M27" s="3" t="str">
+        <v>Lee</v>
+      </c>
+      <c r="N27" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Lee</v>
-      </c>
-      <c r="N27" s="3" t="str">
+        <v>Rodriguez</v>
+      </c>
+      <c r="O27" s="3">
         <f t="shared" si="3"/>
-        <v>Rodriguez</v>
-      </c>
-      <c r="O27" s="3">
+        <v>-147</v>
+      </c>
+      <c r="P27" s="3">
         <f t="shared" si="4"/>
-        <v>-147</v>
-      </c>
-      <c r="P27" s="3">
-        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="Q27" s="6">
@@ -4152,27 +4171,27 @@
         <v>"MMA:Martinez:Cannetti"</v>
       </c>
       <c r="J28" s="34">
+        <f t="shared" si="7"/>
+        <v>1681923600</v>
+      </c>
+      <c r="K28" s="17">
         <f t="shared" si="8"/>
-        <v>1681923600</v>
-      </c>
-      <c r="K28" s="17">
+        <v>368</v>
+      </c>
+      <c r="M28" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>368.05299963194693</v>
-      </c>
-      <c r="M28" s="3" t="str">
+        <v>Martinez</v>
+      </c>
+      <c r="N28" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Martinez</v>
-      </c>
-      <c r="N28" s="3" t="str">
+        <v>Cannetti</v>
+      </c>
+      <c r="O28" s="3">
         <f t="shared" si="3"/>
-        <v>Cannetti</v>
-      </c>
-      <c r="O28" s="3">
+        <v>-286</v>
+      </c>
+      <c r="P28" s="3">
         <f t="shared" si="4"/>
-        <v>-286</v>
-      </c>
-      <c r="P28" s="3">
-        <f t="shared" si="5"/>
         <v>228</v>
       </c>
       <c r="Q28" s="6">
@@ -4270,28 +4289,28 @@
         <v>"MMA:Muradov:Meerschaert"</v>
       </c>
       <c r="J29" s="34">
+        <f t="shared" si="7"/>
+        <v>1681927199.9999998</v>
+      </c>
+      <c r="K29" s="17">
         <f t="shared" si="8"/>
-        <v>1681927199.9999998</v>
-      </c>
-      <c r="K29" s="17">
-        <f t="shared" si="1"/>
-        <v>168.42105263157885</v>
+        <v>168</v>
       </c>
       <c r="L29"/>
       <c r="M29" s="55" t="str">
+        <f t="shared" si="1"/>
+        <v>Muradov</v>
+      </c>
+      <c r="N29" s="55" t="str">
         <f t="shared" si="2"/>
-        <v>Muradov</v>
-      </c>
-      <c r="N29" s="55" t="str">
+        <v>Meerschaert</v>
+      </c>
+      <c r="O29" s="3">
         <f t="shared" si="3"/>
-        <v>Meerschaert</v>
-      </c>
-      <c r="O29" s="3">
+        <v>-625</v>
+      </c>
+      <c r="P29" s="3">
         <f t="shared" si="4"/>
-        <v>-625</v>
-      </c>
-      <c r="P29" s="3">
-        <f t="shared" si="5"/>
         <v>441</v>
       </c>
       <c r="Q29" s="56">
@@ -4388,27 +4407,27 @@
         <v>"MMA:Petroski:Gillmore"</v>
       </c>
       <c r="J30" s="34">
+        <f t="shared" si="7"/>
+        <v>1681930799.9999995</v>
+      </c>
+      <c r="K30" s="17">
         <f t="shared" si="8"/>
-        <v>1681930799.9999995</v>
-      </c>
-      <c r="K30" s="17">
+        <v>189</v>
+      </c>
+      <c r="M30" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>189.32222642938282</v>
-      </c>
-      <c r="M30" s="3" t="str">
+        <v>Petroski</v>
+      </c>
+      <c r="N30" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Petroski</v>
-      </c>
-      <c r="N30" s="3" t="str">
+        <v>Gillmore</v>
+      </c>
+      <c r="O30" s="3">
         <f t="shared" si="3"/>
-        <v>Gillmore</v>
-      </c>
-      <c r="O30" s="3">
+        <v>-556</v>
+      </c>
+      <c r="P30" s="3">
         <f t="shared" si="4"/>
-        <v>-556</v>
-      </c>
-      <c r="P30" s="3">
-        <f t="shared" si="5"/>
         <v>401</v>
       </c>
       <c r="Q30" s="6">
@@ -4505,27 +4524,27 @@
         <v>"MMA:Turcios:Hiestand"</v>
       </c>
       <c r="J31" s="34">
+        <f t="shared" si="7"/>
+        <v>1681934399.9999993</v>
+      </c>
+      <c r="K31" s="17">
         <f t="shared" si="8"/>
-        <v>1681934399.9999993</v>
-      </c>
-      <c r="K31" s="17">
+        <v>674</v>
+      </c>
+      <c r="M31" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>674.76383265856953</v>
-      </c>
-      <c r="M31" s="3" t="str">
+        <v>Turcios</v>
+      </c>
+      <c r="N31" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Turcios</v>
-      </c>
-      <c r="N31" s="3" t="str">
+        <v>Hiestand</v>
+      </c>
+      <c r="O31" s="3">
         <f t="shared" si="3"/>
-        <v>Hiestand</v>
-      </c>
-      <c r="O31" s="3">
+        <v>-156</v>
+      </c>
+      <c r="P31" s="3">
         <f t="shared" si="4"/>
-        <v>-156</v>
-      </c>
-      <c r="P31" s="3">
-        <f t="shared" si="5"/>
         <v>128</v>
       </c>
       <c r="Q31" s="6">
@@ -4622,27 +4641,27 @@
         <v>"MMA:Turman:Alvey"</v>
       </c>
       <c r="J32" s="34">
+        <f t="shared" si="7"/>
+        <v>1682010000</v>
+      </c>
+      <c r="K32" s="17">
         <f t="shared" si="8"/>
-        <v>1682010000</v>
-      </c>
-      <c r="K32" s="17">
+        <v>791</v>
+      </c>
+      <c r="M32" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>791.45231499802139</v>
-      </c>
-      <c r="M32" s="3" t="str">
+        <v>Turman</v>
+      </c>
+      <c r="N32" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Turman</v>
-      </c>
-      <c r="N32" s="3" t="str">
+        <v>Alvey</v>
+      </c>
+      <c r="O32" s="3">
         <f t="shared" si="3"/>
-        <v>Alvey</v>
-      </c>
-      <c r="O32" s="3">
+        <v>-133</v>
+      </c>
+      <c r="P32" s="3">
         <f t="shared" si="4"/>
-        <v>-133</v>
-      </c>
-      <c r="P32" s="3">
-        <f t="shared" si="5"/>
         <v>110</v>
       </c>
       <c r="Q32" s="6">
@@ -4739,27 +4758,27 @@
         <v>"MMA:Battle:Urbina"</v>
       </c>
       <c r="J33" s="34">
+        <f t="shared" si="7"/>
+        <v>1682013599.9999998</v>
+      </c>
+      <c r="K33" s="17">
         <f t="shared" si="8"/>
-        <v>1682013599.9999998</v>
-      </c>
-      <c r="K33" s="17">
+        <v>548</v>
+      </c>
+      <c r="M33" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>548.24561403508767</v>
-      </c>
-      <c r="M33" s="3" t="str">
+        <v>Battle</v>
+      </c>
+      <c r="N33" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Battle</v>
-      </c>
-      <c r="N33" s="3" t="str">
+        <v>Urbina</v>
+      </c>
+      <c r="O33" s="3">
         <f t="shared" si="3"/>
-        <v>Urbina</v>
-      </c>
-      <c r="O33" s="3">
+        <v>-192</v>
+      </c>
+      <c r="P33" s="3">
         <f t="shared" si="4"/>
-        <v>-192</v>
-      </c>
-      <c r="P33" s="3">
-        <f t="shared" si="5"/>
         <v>158</v>
       </c>
       <c r="Q33" s="6">
@@ -4856,27 +4875,27 @@
         <v>"MMA:Breese:Akhemedov"</v>
       </c>
       <c r="J34" s="34">
+        <f t="shared" si="7"/>
+        <v>1682017199.9999995</v>
+      </c>
+      <c r="K34" s="17">
         <f t="shared" si="8"/>
-        <v>1682017199.9999995</v>
-      </c>
-      <c r="K34" s="17">
+        <v>284</v>
+      </c>
+      <c r="M34" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>284.21052631578948</v>
-      </c>
-      <c r="M34" s="3" t="str">
+        <v>Breese</v>
+      </c>
+      <c r="N34" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Breese</v>
-      </c>
-      <c r="N34" s="3" t="str">
+        <v>Akhemedov</v>
+      </c>
+      <c r="O34" s="3">
         <f t="shared" si="3"/>
-        <v>Akhemedov</v>
-      </c>
-      <c r="O34" s="3">
+        <v>-370.37037037037032</v>
+      </c>
+      <c r="P34" s="3">
         <f t="shared" si="4"/>
-        <v>-370.37037037037032</v>
-      </c>
-      <c r="P34" s="3">
-        <f t="shared" si="5"/>
         <v>290</v>
       </c>
       <c r="Q34" s="6">
@@ -4973,27 +4992,27 @@
         <v>"MMA:Akhemedov:Breese"</v>
       </c>
       <c r="J35" s="36">
+        <f t="shared" si="7"/>
+        <v>1682020799.9999993</v>
+      </c>
+      <c r="K35" s="37">
         <f t="shared" si="8"/>
-        <v>1682020799.9999993</v>
-      </c>
-      <c r="K35" s="37">
+        <v>494</v>
+      </c>
+      <c r="M35" s="3" t="str">
         <f t="shared" si="1"/>
-        <v>494.73684210526329</v>
-      </c>
-      <c r="M35" s="3" t="str">
+        <v>Akhemedov</v>
+      </c>
+      <c r="N35" s="3" t="str">
         <f t="shared" si="2"/>
-        <v>Akhemedov</v>
-      </c>
-      <c r="N35" s="3" t="str">
+        <v>Breese</v>
+      </c>
+      <c r="O35" s="3">
         <f t="shared" si="3"/>
-        <v>Breese</v>
-      </c>
-      <c r="O35" s="3">
+        <v>-212.76595744680853</v>
+      </c>
+      <c r="P35" s="3">
         <f t="shared" si="4"/>
-        <v>-212.76595744680853</v>
-      </c>
-      <c r="P35" s="3">
-        <f t="shared" si="5"/>
         <v>175</v>
       </c>
       <c r="Q35" s="6">
@@ -5060,6 +5079,30 @@
       <c r="AG35" s="7">
         <f t="shared" si="21"/>
         <v>-2.2795106883703564E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G37" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I37" s="83" t="str">
+        <f>"["&amp;I4&amp;","&amp;I5&amp;","&amp;I6&amp;","&amp;I7&amp;","&amp;I8&amp;","&amp;I9&amp;","&amp;I10&amp;","&amp;I11&amp;","&amp;I12&amp;","&amp;I13&amp;","&amp;I14&amp;","&amp;I15&amp;","&amp;I16&amp;","&amp;I17&amp;","&amp;I18&amp;","&amp;I19&amp;","&amp;I20&amp;","&amp;I21&amp;","&amp;I22&amp;","&amp;I23&amp;","&amp;I24&amp;","&amp;I25&amp;","&amp;I26&amp;","&amp;I27&amp;","&amp;I28&amp;","&amp;I29&amp;","&amp;I30&amp;","&amp;I31&amp;","&amp;I32&amp;","&amp;I33&amp;","&amp;I34&amp;","&amp;I35&amp;"]"</f>
+        <v>["NFL:ARI:LAC","NFL:LAR:ATL","NFL:BAL:MIA","NFL:BUF:MIN","NFL:CAR:NE","NFL:NO:CHI","NFL:NYG:CIN","NFL:NYJ:CLE","NFL:OAK:DAL","NFL:PHI:DEN","NFL:PIT:DET","CFB:Cincinnati:OhioState","CFB:Kentucky:Alabama","CFB:Texas:Oregon","CFB:LSU:USC","CFB:Auburn:UCLA","MMA:Kattar:Holloway","MMA:Li:Ponzinibbio","MMA:Aldrich:Demopoulos","MMA:Di Chirico:Alhassan","MMA:Barboza:Chikadze","MMA:Emmers:Sabatini","MMA:Jacoby:Stewart","MMA:Lee:Rodriguez","MMA:Martinez:Cannetti","MMA:Muradov:Meerschaert","MMA:Petroski:Gillmore","MMA:Turcios:Hiestand","MMA:Turman:Alvey","MMA:Battle:Urbina","MMA:Breese:Akhemedov","MMA:Akhemedov:Breese"]</v>
+      </c>
+    </row>
+    <row r="38" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I39" s="83" t="str">
+        <f>"["&amp;J4&amp;","&amp;J5&amp;","&amp;J6&amp;","&amp;J7&amp;","&amp;J8&amp;","&amp;J9&amp;","&amp;J10&amp;","&amp;J11&amp;","&amp;J12&amp;","&amp;J13&amp;","&amp;J14&amp;","&amp;J15&amp;","&amp;J16&amp;","&amp;J17&amp;","&amp;J18&amp;","&amp;J19&amp;","&amp;J20&amp;","&amp;J21&amp;","&amp;J22&amp;","&amp;J23&amp;","&amp;J24&amp;","&amp;J25&amp;","&amp;J26&amp;","&amp;J27&amp;","&amp;J28&amp;","&amp;J29&amp;","&amp;J30&amp;","&amp;J31&amp;","&amp;J32&amp;","&amp;J33&amp;","&amp;J34&amp;","&amp;J35&amp;"]"</f>
+        <v>[1681405200,1681408800,1681412400,1681416000,1681491600,1681495200,1681498800,1681502400,1681578000,1681581600,1681585200,1681588800,1681664400,1681668000,1681671600,1681675200,1681750800,1681754400,1681758000,1681761600,1681837200,1681840800,1681844400,1681848000,1681923600,1681927200,1681930800,1681934400,1682010000,1682013600,1682017200,1682020800]</v>
+      </c>
+    </row>
+    <row r="40" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I41" s="83" t="str">
+        <f>"["&amp;K4&amp;","&amp;K5&amp;","&amp;K6&amp;","&amp;K7&amp;","&amp;K8&amp;","&amp;K9&amp;","&amp;K10&amp;","&amp;K11&amp;","&amp;K12&amp;","&amp;K13&amp;","&amp;K14&amp;","&amp;K15&amp;","&amp;K16&amp;","&amp;K17&amp;","&amp;K18&amp;","&amp;K19&amp;","&amp;K20&amp;","&amp;K21&amp;","&amp;K22&amp;","&amp;K23&amp;","&amp;K24&amp;","&amp;K25&amp;","&amp;K26&amp;","&amp;K27&amp;","&amp;K28&amp;","&amp;K29&amp;","&amp;K30&amp;","&amp;K31&amp;","&amp;K32&amp;","&amp;K33&amp;","&amp;K34&amp;","&amp;K35&amp;"]"</f>
+        <v>[65,948,631,842,956,1042,690,567,477,408,355,311,275,245,220,198,179,162,221,368,915,674,537,716,368,168,189,674,791,548,284,494]</v>
       </c>
     </row>
   </sheetData>
@@ -7263,15 +7306,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000A8703-1866-4462-8729-CF2892335D69}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="C2:T29"/>
+  <dimension ref="C2:X29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D2" s="4" t="s">
         <v>110</v>
       </c>
@@ -7279,7 +7322,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C3">
         <v>0</v>
       </c>
@@ -7293,7 +7336,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="4" spans="3:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C4">
         <v>1</v>
       </c>
@@ -7321,28 +7364,38 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>-110</v>
+        <v>350</v>
       </c>
       <c r="P4">
-        <v>-120</v>
+        <v>-520</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4" s="6">
         <f>IF(O4&lt;0,-(100-O4)/O4,O4/100+1)</f>
-        <v>1.9090909090909092</v>
+        <v>4.5</v>
       </c>
       <c r="S4" s="6">
         <f>IF(P4&lt;0,-(100-P4)/P4,P4/100+1)</f>
-        <v>1.8333333333333333</v>
-      </c>
-      <c r="T4">
+        <v>1.1923076923076923</v>
+      </c>
+      <c r="T4" s="5">
         <f>1/R4+1/S4</f>
-        <v>1.0692640692640694</v>
-      </c>
-    </row>
-    <row r="5" spans="3:20" x14ac:dyDescent="0.25">
+        <v>1.0609318996415771</v>
+      </c>
+      <c r="V4">
+        <v>1.724</v>
+      </c>
+      <c r="W4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="X4" s="5">
+        <f>1/V4+1/W4</f>
+        <v>1.0345918582577516</v>
+      </c>
+    </row>
+    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C5">
         <v>2</v>
       </c>
@@ -7370,28 +7423,38 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>-130</v>
+        <v>162</v>
       </c>
       <c r="P5">
-        <v>100</v>
+        <v>-210</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
       <c r="R5" s="6">
-        <f t="shared" ref="R5:R16" si="2">IF(O5&lt;0,-(100-O5)/O5,O5/100+1)</f>
-        <v>1.7692307692307692</v>
+        <f t="shared" ref="R5:R18" si="2">IF(O5&lt;0,-(100-O5)/O5,O5/100+1)</f>
+        <v>2.62</v>
       </c>
       <c r="S5" s="6">
-        <f t="shared" ref="S5:S16" si="3">IF(P5&lt;0,-(100-P5)/P5,P5/100+1)</f>
-        <v>2</v>
-      </c>
-      <c r="T5">
-        <f t="shared" ref="T5:T16" si="4">1/R5+1/S5</f>
-        <v>1.0652173913043479</v>
-      </c>
-    </row>
-    <row r="6" spans="3:20" x14ac:dyDescent="0.25">
+        <f t="shared" ref="S5:S18" si="3">IF(P5&lt;0,-(100-P5)/P5,P5/100+1)</f>
+        <v>1.4761904761904763</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" ref="T5:T18" si="4">1/R5+1/S5</f>
+        <v>1.0590987441516866</v>
+      </c>
+      <c r="V5">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="W5">
+        <v>1.9339999999999999</v>
+      </c>
+      <c r="X5" s="5">
+        <f t="shared" ref="X5:X6" si="5">1/V5+1/W5</f>
+        <v>1.0341261633919339</v>
+      </c>
+    </row>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>3</v>
       </c>
@@ -7419,28 +7482,38 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>-370</v>
+        <v>-250</v>
       </c>
       <c r="P6">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
       <c r="R6" s="6">
         <f t="shared" si="2"/>
-        <v>1.2702702702702702</v>
+        <v>1.4</v>
       </c>
       <c r="S6" s="6">
         <f t="shared" si="3"/>
-        <v>3.55</v>
-      </c>
-      <c r="T6">
+        <v>2.9</v>
+      </c>
+      <c r="T6" s="5">
         <f t="shared" si="4"/>
-        <v>1.0689241833982619</v>
-      </c>
-    </row>
-    <row r="7" spans="3:20" x14ac:dyDescent="0.25">
+        <v>1.0591133004926108</v>
+      </c>
+      <c r="V6">
+        <v>2.93</v>
+      </c>
+      <c r="W6">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="X6" s="5">
+        <f t="shared" si="5"/>
+        <v>1.038646998062652</v>
+      </c>
+    </row>
+    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C7">
         <v>4</v>
       </c>
@@ -7462,28 +7535,28 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>-175</v>
+        <v>186</v>
       </c>
       <c r="P7">
-        <v>130</v>
+        <v>-245</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
       <c r="R7" s="6">
         <f t="shared" si="2"/>
-        <v>1.5714285714285714</v>
+        <v>2.8600000000000003</v>
       </c>
       <c r="S7" s="6">
         <f t="shared" si="3"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="T7">
+        <v>1.4081632653061225</v>
+      </c>
+      <c r="T7" s="5">
         <f t="shared" si="4"/>
-        <v>1.0711462450592886</v>
-      </c>
-    </row>
-    <row r="8" spans="3:20" x14ac:dyDescent="0.25">
+        <v>1.0597952771865815</v>
+      </c>
+    </row>
+    <row r="8" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C8">
         <v>5</v>
       </c>
@@ -7505,28 +7578,28 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>-105</v>
+        <v>-205</v>
       </c>
       <c r="P8">
-        <v>-125</v>
+        <v>170</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8" s="6">
         <f t="shared" si="2"/>
-        <v>1.9523809523809523</v>
+        <v>1.4878048780487805</v>
       </c>
       <c r="S8" s="6">
         <f t="shared" si="3"/>
-        <v>1.8</v>
-      </c>
-      <c r="T8">
+        <v>2.7</v>
+      </c>
+      <c r="T8" s="5">
         <f t="shared" si="4"/>
-        <v>1.0677506775067751</v>
-      </c>
-    </row>
-    <row r="9" spans="3:20" x14ac:dyDescent="0.25">
+        <v>1.0425015179113539</v>
+      </c>
+    </row>
+    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>6</v>
       </c>
@@ -7548,28 +7621,28 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>-130</v>
+        <v>-300</v>
       </c>
       <c r="P9">
-        <v>100</v>
+        <v>240</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9" s="6">
         <f t="shared" si="2"/>
-        <v>1.7692307692307692</v>
+        <v>1.3333333333333333</v>
       </c>
       <c r="S9" s="6">
         <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-      <c r="T9">
+        <v>3.4</v>
+      </c>
+      <c r="T9" s="5">
         <f t="shared" si="4"/>
-        <v>1.0652173913043479</v>
-      </c>
-    </row>
-    <row r="10" spans="3:20" x14ac:dyDescent="0.25">
+        <v>1.0441176470588236</v>
+      </c>
+    </row>
+    <row r="10" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>7</v>
       </c>
@@ -7591,28 +7664,28 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>-400</v>
+        <v>-180</v>
       </c>
       <c r="P10">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10" s="6">
         <f t="shared" si="2"/>
-        <v>1.25</v>
+        <v>1.5555555555555556</v>
       </c>
       <c r="S10" s="6">
         <f t="shared" si="3"/>
-        <v>3.7</v>
-      </c>
-      <c r="T10">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="T10" s="5">
         <f t="shared" si="4"/>
-        <v>1.0702702702702702</v>
-      </c>
-    </row>
-    <row r="11" spans="3:20" x14ac:dyDescent="0.25">
+        <v>1.0350140056022408</v>
+      </c>
+    </row>
+    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
       <c r="J11">
         <v>7</v>
       </c>
@@ -7628,28 +7701,28 @@
         <v>1</v>
       </c>
       <c r="O11">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="P11">
-        <v>-145</v>
+        <v>-150</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
       <c r="R11" s="6">
         <f t="shared" si="2"/>
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S11" s="6">
         <f t="shared" si="3"/>
-        <v>1.6896551724137931</v>
-      </c>
-      <c r="T11">
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="T11" s="5">
         <f t="shared" si="4"/>
-        <v>1.0680272108843538</v>
-      </c>
-    </row>
-    <row r="12" spans="3:20" x14ac:dyDescent="0.25">
+        <v>1.0444444444444443</v>
+      </c>
+    </row>
+    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
       <c r="J12">
         <v>8</v>
       </c>
@@ -7665,28 +7738,28 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>-1400</v>
+        <v>-150</v>
       </c>
       <c r="P12">
-        <v>650</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12" s="6">
         <f t="shared" si="2"/>
-        <v>1.0714285714285714</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="S12" s="6">
         <f t="shared" si="3"/>
-        <v>7.5</v>
-      </c>
-      <c r="T12">
+        <v>2.25</v>
+      </c>
+      <c r="T12" s="5">
         <f t="shared" si="4"/>
-        <v>1.0666666666666667</v>
-      </c>
-    </row>
-    <row r="13" spans="3:20" x14ac:dyDescent="0.25">
+        <v>1.0444444444444443</v>
+      </c>
+    </row>
+    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
       <c r="D13" s="4" t="s">
         <v>111</v>
       </c>
@@ -7708,28 +7781,28 @@
         <v>1</v>
       </c>
       <c r="O13">
-        <v>-210</v>
+        <v>-230</v>
       </c>
       <c r="P13">
-        <v>155</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13" s="6">
         <f t="shared" si="2"/>
-        <v>1.4761904761904763</v>
+        <v>1.4347826086956521</v>
       </c>
       <c r="S13" s="6">
         <f t="shared" si="3"/>
-        <v>2.5499999999999998</v>
-      </c>
-      <c r="T13">
+        <v>2.9</v>
+      </c>
+      <c r="T13" s="5">
         <f t="shared" si="4"/>
-        <v>1.0695762175838077</v>
-      </c>
-    </row>
-    <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+        <v>1.0417972831765936</v>
+      </c>
+    </row>
+    <row r="14" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C14">
         <v>0</v>
       </c>
@@ -7760,28 +7833,28 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>-185</v>
+        <v>-150</v>
       </c>
       <c r="P14">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14" s="6">
         <f t="shared" si="2"/>
-        <v>1.5405405405405406</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="S14" s="6">
         <f t="shared" si="3"/>
-        <v>2.35</v>
-      </c>
-      <c r="T14">
+        <v>2.25</v>
+      </c>
+      <c r="T14" s="5">
         <f t="shared" si="4"/>
-        <v>1.0746547219111608</v>
-      </c>
-    </row>
-    <row r="15" spans="3:20" x14ac:dyDescent="0.25">
+        <v>1.0444444444444443</v>
+      </c>
+    </row>
+    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C15">
         <v>1</v>
       </c>
@@ -7812,28 +7885,28 @@
         <v>1</v>
       </c>
       <c r="O15">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="P15">
-        <v>-130</v>
+        <v>-140</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15" s="6">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="S15" s="6">
         <f t="shared" si="3"/>
-        <v>1.7692307692307692</v>
-      </c>
-      <c r="T15">
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="T15" s="5">
         <f t="shared" si="4"/>
-        <v>1.0652173913043479</v>
-      </c>
-    </row>
-    <row r="16" spans="3:20" x14ac:dyDescent="0.25">
+        <v>1.0378787878787878</v>
+      </c>
+    </row>
+    <row r="16" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C16">
         <v>2</v>
       </c>
@@ -7864,25 +7937,25 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>-170</v>
+        <v>-125</v>
       </c>
       <c r="P16">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16" s="6">
         <f t="shared" si="2"/>
-        <v>1.588235294117647</v>
+        <v>1.8</v>
       </c>
       <c r="S16" s="6">
         <f t="shared" si="3"/>
-        <v>2.25</v>
-      </c>
-      <c r="T16">
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="T16" s="5">
         <f t="shared" si="4"/>
-        <v>1.074074074074074</v>
+        <v>1.0433604336043361</v>
       </c>
     </row>
     <row r="17" spans="3:20" x14ac:dyDescent="0.25">
@@ -7916,13 +7989,25 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>-120</v>
+        <v>125</v>
       </c>
       <c r="P17">
-        <v>-130</v>
+        <v>-150</v>
       </c>
       <c r="Q17">
         <v>1</v>
+      </c>
+      <c r="R17" s="6">
+        <f t="shared" si="2"/>
+        <v>2.25</v>
+      </c>
+      <c r="S17" s="6">
+        <f t="shared" si="3"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="T17" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0444444444444443</v>
       </c>
     </row>
     <row r="18" spans="3:20" x14ac:dyDescent="0.25">
@@ -7956,17 +8041,25 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>100</v>
+        <v>135</v>
       </c>
       <c r="P18">
-        <v>-370</v>
+        <v>-160</v>
       </c>
       <c r="Q18">
         <v>1</v>
       </c>
-      <c r="T18">
-        <f>AVERAGE(T4:T17)</f>
-        <v>1.0689235777332133</v>
+      <c r="R18" s="6">
+        <f t="shared" si="2"/>
+        <v>2.35</v>
+      </c>
+      <c r="S18" s="6">
+        <f t="shared" si="3"/>
+        <v>1.625</v>
+      </c>
+      <c r="T18" s="5">
+        <f t="shared" si="4"/>
+        <v>1.0409165302782324</v>
       </c>
     </row>
     <row r="19" spans="3:20" x14ac:dyDescent="0.25">
@@ -7999,15 +8092,6 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O19">
-        <v>255</v>
-      </c>
-      <c r="P19">
-        <v>-175</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
     </row>
     <row r="20" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C20">
@@ -8039,15 +8123,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O20">
-        <v>130</v>
-      </c>
-      <c r="P20">
-        <v>-105</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
     </row>
     <row r="21" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C21">
@@ -8070,15 +8145,6 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="O21">
-        <v>-125</v>
-      </c>
-      <c r="P21">
-        <v>-130</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
     </row>
     <row r="22" spans="3:20" x14ac:dyDescent="0.25">
       <c r="J22">
@@ -8095,15 +8161,6 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="O22">
-        <v>100</v>
-      </c>
-      <c r="P22">
-        <v>-400</v>
-      </c>
-      <c r="Q22">
-        <v>1</v>
-      </c>
     </row>
     <row r="23" spans="3:20" x14ac:dyDescent="0.25">
       <c r="J23">
@@ -8118,15 +8175,6 @@
       </c>
       <c r="M23">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="O23">
-        <v>270</v>
-      </c>
-      <c r="P23">
-        <v>110</v>
-      </c>
-      <c r="Q23">
         <v>1</v>
       </c>
     </row>

--- a/docs/CreateSportEthInputs.xlsx
+++ b/docs/CreateSportEthInputs.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric\Documents\Github\sporteth0\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97692AD-9F34-4CAA-AB6A-BC21DCB91CF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD495FF-E3ED-450B-8980-FE103710C5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29070" yWindow="1620" windowWidth="24135" windowHeight="13305" xr2:uid="{1230EDBB-7CF7-4CB6-8A8B-436EE42A5ED4}"/>
+    <workbookView xWindow="3615" yWindow="1740" windowWidth="21600" windowHeight="13305" activeTab="1" xr2:uid="{1230EDBB-7CF7-4CB6-8A8B-436EE42A5ED4}"/>
   </bookViews>
   <sheets>
     <sheet name="initData" sheetId="3" r:id="rId1"/>
-    <sheet name="MLtoDEC" sheetId="4" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="initcsv" sheetId="5" r:id="rId2"/>
+    <sheet name="updatecsv" sheetId="6" r:id="rId3"/>
+    <sheet name="resultscsv" sheetId="7" r:id="rId4"/>
+    <sheet name="MLtoDEC" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">initData!$X$1:$Y$1</definedName>
@@ -76,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="136">
   <si>
     <t>ProbWin</t>
   </si>
@@ -460,6 +463,30 @@
   </si>
   <si>
     <t>Inputs</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "_teamsched": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ],</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "_starts": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "_decimalOdds": [</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ]</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  "_results": [</t>
   </si>
 </sst>
 </file>
@@ -670,7 +697,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -809,6 +836,7 @@
     </xf>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="9" xfId="3" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
@@ -1129,8 +1157,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AG41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4978,10 +5006,10 @@
         <v>35</v>
       </c>
       <c r="E35" s="80">
-        <v>-212.76595744680853</v>
+        <v>-425</v>
       </c>
       <c r="F35" s="80">
-        <v>175</v>
+        <v>310</v>
       </c>
       <c r="G35" s="81">
         <f>G31+1</f>
@@ -4997,7 +5025,7 @@
       </c>
       <c r="K35" s="37">
         <f t="shared" si="8"/>
-        <v>494</v>
+        <v>247</v>
       </c>
       <c r="M35" s="3" t="str">
         <f t="shared" si="1"/>
@@ -5009,76 +5037,76 @@
       </c>
       <c r="O35" s="3">
         <f t="shared" si="3"/>
-        <v>-212.76595744680853</v>
+        <v>-425</v>
       </c>
       <c r="P35" s="3">
         <f t="shared" si="4"/>
-        <v>175</v>
+        <v>310</v>
       </c>
       <c r="Q35" s="6">
         <f t="shared" si="23"/>
-        <v>1.4700000000000002</v>
+        <v>1.2352941176470589</v>
       </c>
       <c r="R35" s="6">
         <f t="shared" si="24"/>
-        <v>2.75</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="S35" s="61">
         <f t="shared" si="29"/>
-        <v>0.68027210884353728</v>
+        <v>0.80952380952380953</v>
       </c>
       <c r="T35" s="62">
         <f t="shared" si="30"/>
-        <v>0.36363636363636365</v>
+        <v>0.24390243902439027</v>
       </c>
       <c r="U35" s="2">
         <f t="shared" si="31"/>
-        <v>4.206161137440767E-2</v>
+        <v>5.0716648291069477E-2</v>
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="2">
         <f t="shared" si="11"/>
-        <v>0.15831787260358682</v>
+        <v>0.28281068524970965</v>
       </c>
       <c r="X35" s="50">
         <f t="shared" si="12"/>
-        <v>0.66727210884353727</v>
+        <v>0.79652380952380952</v>
       </c>
       <c r="Y35" s="63">
         <f t="shared" si="13"/>
-        <v>0.35063636363636363</v>
+        <v>0.23090243902439025</v>
       </c>
       <c r="Z35" s="64">
         <f t="shared" si="14"/>
-        <v>494.73684210526329</v>
+        <v>247.67801857585147</v>
       </c>
       <c r="AA35" s="65">
         <f t="shared" si="15"/>
-        <v>1818.110413806628</v>
+        <v>3407.1086719534865</v>
       </c>
       <c r="AB35" s="3">
         <f t="shared" si="32"/>
-        <v>470.00000000000011</v>
+        <v>235.2941176470589</v>
       </c>
       <c r="AC35" s="16">
         <f t="shared" si="33"/>
-        <v>1727.2048931162965</v>
+        <v>3236.7532383558118</v>
       </c>
       <c r="AD35" s="14">
         <f t="shared" si="18"/>
-        <v>1.4700000000000002</v>
+        <v>1.2352941176470589</v>
       </c>
       <c r="AE35" s="14">
         <f t="shared" si="19"/>
-        <v>2.7272048931162964</v>
+        <v>4.2367532383558117</v>
       </c>
       <c r="AF35" s="2">
         <f t="shared" si="20"/>
-        <v>4.6947895662520889E-2</v>
+        <v>4.5553604921588553E-2</v>
       </c>
       <c r="AG35" s="7">
         <f t="shared" si="21"/>
-        <v>-2.2795106883703564E-2</v>
+        <v>0.1367532383558121</v>
       </c>
     </row>
     <row r="36" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -5087,7 +5115,7 @@
         <v>127</v>
       </c>
       <c r="I37" s="83" t="str">
-        <f>"["&amp;I4&amp;","&amp;I5&amp;","&amp;I6&amp;","&amp;I7&amp;","&amp;I8&amp;","&amp;I9&amp;","&amp;I10&amp;","&amp;I11&amp;","&amp;I12&amp;","&amp;I13&amp;","&amp;I14&amp;","&amp;I15&amp;","&amp;I16&amp;","&amp;I17&amp;","&amp;I18&amp;","&amp;I19&amp;","&amp;I20&amp;","&amp;I21&amp;","&amp;I22&amp;","&amp;I23&amp;","&amp;I24&amp;","&amp;I25&amp;","&amp;I26&amp;","&amp;I27&amp;","&amp;I28&amp;","&amp;I29&amp;","&amp;I30&amp;","&amp;I31&amp;","&amp;I32&amp;","&amp;I33&amp;","&amp;I34&amp;","&amp;I35&amp;"]"</f>
+        <f>"["&amp;$I$4&amp;","&amp;$I$5&amp;","&amp;$I$6&amp;","&amp;$I$7&amp;","&amp;$I$8&amp;","&amp;$I$9&amp;","&amp;$I$10&amp;","&amp;$I$11&amp;","&amp;$I$12&amp;","&amp;$I$13&amp;","&amp;$I$14&amp;","&amp;$I$15&amp;","&amp;$I$16&amp;","&amp;$I$17&amp;","&amp;$I$18&amp;","&amp;$I$19&amp;","&amp;$I$20&amp;","&amp;$I$21&amp;","&amp;$I$22&amp;","&amp;$I$23&amp;","&amp;$I$24&amp;","&amp;$I$25&amp;","&amp;$I$26&amp;","&amp;$I$27&amp;","&amp;$I$28&amp;","&amp;$I$29&amp;","&amp;$I$30&amp;","&amp;$I$31&amp;","&amp;$I$32&amp;","&amp;$I$33&amp;","&amp;$I$34&amp;","&amp;$I$35&amp;"]"</f>
         <v>["NFL:ARI:LAC","NFL:LAR:ATL","NFL:BAL:MIA","NFL:BUF:MIN","NFL:CAR:NE","NFL:NO:CHI","NFL:NYG:CIN","NFL:NYJ:CLE","NFL:OAK:DAL","NFL:PHI:DEN","NFL:PIT:DET","CFB:Cincinnati:OhioState","CFB:Kentucky:Alabama","CFB:Texas:Oregon","CFB:LSU:USC","CFB:Auburn:UCLA","MMA:Kattar:Holloway","MMA:Li:Ponzinibbio","MMA:Aldrich:Demopoulos","MMA:Di Chirico:Alhassan","MMA:Barboza:Chikadze","MMA:Emmers:Sabatini","MMA:Jacoby:Stewart","MMA:Lee:Rodriguez","MMA:Martinez:Cannetti","MMA:Muradov:Meerschaert","MMA:Petroski:Gillmore","MMA:Turcios:Hiestand","MMA:Turman:Alvey","MMA:Battle:Urbina","MMA:Breese:Akhemedov","MMA:Akhemedov:Breese"]</v>
       </c>
     </row>
@@ -5102,7 +5130,7 @@
     <row r="41" spans="1:33" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="I41" s="83" t="str">
         <f>"["&amp;K4&amp;","&amp;K5&amp;","&amp;K6&amp;","&amp;K7&amp;","&amp;K8&amp;","&amp;K9&amp;","&amp;K10&amp;","&amp;K11&amp;","&amp;K12&amp;","&amp;K13&amp;","&amp;K14&amp;","&amp;K15&amp;","&amp;K16&amp;","&amp;K17&amp;","&amp;K18&amp;","&amp;K19&amp;","&amp;K20&amp;","&amp;K21&amp;","&amp;K22&amp;","&amp;K23&amp;","&amp;K24&amp;","&amp;K25&amp;","&amp;K26&amp;","&amp;K27&amp;","&amp;K28&amp;","&amp;K29&amp;","&amp;K30&amp;","&amp;K31&amp;","&amp;K32&amp;","&amp;K33&amp;","&amp;K34&amp;","&amp;K35&amp;"]"</f>
-        <v>[65,948,631,842,956,1042,690,567,477,408,355,311,275,245,220,198,179,162,221,368,915,674,537,716,368,168,189,674,791,548,284,494]</v>
+        <v>[65,948,631,842,956,1042,690,567,477,408,355,311,275,245,220,198,179,162,221,368,915,674,537,716,368,168,189,674,791,548,284,247]</v>
       </c>
     </row>
   </sheetData>
@@ -5111,6 +5139,1108 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A6BE0B-31AA-4695-8915-41B298CD5834}">
+  <dimension ref="A1:D104"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4845" topLeftCell="A97"/>
+      <selection activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="A103" sqref="A103"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>initData!$I4&amp;","</f>
+        <v>"NFL:ARI:LAC",</v>
+      </c>
+      <c r="D3" s="84">
+        <v>36344</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>initData!$I5&amp;","</f>
+        <v>"NFL:LAR:ATL",</v>
+      </c>
+      <c r="D4" s="84">
+        <v>45143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>initData!$I6&amp;","</f>
+        <v>"NFL:BAL:MIA",</v>
+      </c>
+      <c r="D5">
+        <f>(D4-D3)/365</f>
+        <v>24.106849315068494</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>initData!$I7&amp;","</f>
+        <v>"NFL:BUF:MIN",</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>initData!$I8&amp;","</f>
+        <v>"NFL:CAR:NE",</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>initData!$I9&amp;","</f>
+        <v>"NFL:NO:CHI",</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>initData!$I10&amp;","</f>
+        <v>"NFL:NYG:CIN",</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>initData!$I11&amp;","</f>
+        <v>"NFL:NYJ:CLE",</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>initData!$I12&amp;","</f>
+        <v>"NFL:OAK:DAL",</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>initData!$I13&amp;","</f>
+        <v>"NFL:PHI:DEN",</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>initData!$I14&amp;","</f>
+        <v>"NFL:PIT:DET",</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>initData!$I15&amp;","</f>
+        <v>"CFB:Cincinnati:OhioState",</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>initData!$I16&amp;","</f>
+        <v>"CFB:Kentucky:Alabama",</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>initData!$I17&amp;","</f>
+        <v>"CFB:Texas:Oregon",</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>initData!$I18&amp;","</f>
+        <v>"CFB:LSU:USC",</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>initData!$I19&amp;","</f>
+        <v>"CFB:Auburn:UCLA",</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>initData!$I20&amp;","</f>
+        <v>"MMA:Kattar:Holloway",</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>initData!$I21&amp;","</f>
+        <v>"MMA:Li:Ponzinibbio",</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>initData!$I22&amp;","</f>
+        <v>"MMA:Aldrich:Demopoulos",</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>initData!$I23&amp;","</f>
+        <v>"MMA:Di Chirico:Alhassan",</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>initData!$I24&amp;","</f>
+        <v>"MMA:Barboza:Chikadze",</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>initData!$I25&amp;","</f>
+        <v>"MMA:Emmers:Sabatini",</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>initData!$I26&amp;","</f>
+        <v>"MMA:Jacoby:Stewart",</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>initData!$I27&amp;","</f>
+        <v>"MMA:Lee:Rodriguez",</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>initData!$I28&amp;","</f>
+        <v>"MMA:Martinez:Cannetti",</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>initData!$I29&amp;","</f>
+        <v>"MMA:Muradov:Meerschaert",</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>initData!$I30&amp;","</f>
+        <v>"MMA:Petroski:Gillmore",</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>initData!$I31&amp;","</f>
+        <v>"MMA:Turcios:Hiestand",</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>initData!$I32&amp;","</f>
+        <v>"MMA:Turman:Alvey",</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>initData!$I33&amp;","</f>
+        <v>"MMA:Battle:Urbina",</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>initData!$I34&amp;","</f>
+        <v>"MMA:Breese:Akhemedov",</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>initData!$I35&amp;","</f>
+        <v>"MMA:Akhemedov:Breese",</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f>initData!J4&amp;","</f>
+        <v>1681405200,</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f>initData!J5&amp;","</f>
+        <v>1681408800,</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f>initData!J6&amp;","</f>
+        <v>1681412400,</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f>initData!J7&amp;","</f>
+        <v>1681416000,</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f>initData!J8&amp;","</f>
+        <v>1681491600,</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f>initData!J9&amp;","</f>
+        <v>1681495200,</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f>initData!J10&amp;","</f>
+        <v>1681498800,</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f>initData!J11&amp;","</f>
+        <v>1681502400,</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f>initData!J12&amp;","</f>
+        <v>1681578000,</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f>initData!J13&amp;","</f>
+        <v>1681581600,</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f>initData!J14&amp;","</f>
+        <v>1681585200,</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f>initData!J15&amp;","</f>
+        <v>1681588800,</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f>initData!J16&amp;","</f>
+        <v>1681664400,</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f>initData!J17&amp;","</f>
+        <v>1681668000,</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f>initData!J18&amp;","</f>
+        <v>1681671600,</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f>initData!J19&amp;","</f>
+        <v>1681675200,</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f>initData!J20&amp;","</f>
+        <v>1681750800,</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f>initData!J21&amp;","</f>
+        <v>1681754400,</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f>initData!J22&amp;","</f>
+        <v>1681758000,</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f>initData!J23&amp;","</f>
+        <v>1681761600,</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f>initData!J24&amp;","</f>
+        <v>1681837200,</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f>initData!J25&amp;","</f>
+        <v>1681840800,</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f>initData!J26&amp;","</f>
+        <v>1681844400,</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f>initData!J27&amp;","</f>
+        <v>1681848000,</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f>initData!J28&amp;","</f>
+        <v>1681923600,</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f>initData!J29&amp;","</f>
+        <v>1681927200,</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f>initData!J30&amp;","</f>
+        <v>1681930800,</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f>initData!J31&amp;","</f>
+        <v>1681934400,</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f>initData!J32&amp;","</f>
+        <v>1682010000,</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f>initData!J33&amp;","</f>
+        <v>1682013600,</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f>initData!J34&amp;","</f>
+        <v>1682017200,</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f>initData!J35&amp;","</f>
+        <v>1682020800,</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f>initData!K4&amp;","</f>
+        <v>65,</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f>initData!K5&amp;","</f>
+        <v>948,</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f>initData!K6&amp;","</f>
+        <v>631,</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f>initData!K7&amp;","</f>
+        <v>842,</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f>initData!K8&amp;","</f>
+        <v>956,</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f>initData!K9&amp;","</f>
+        <v>1042,</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f>initData!K10&amp;","</f>
+        <v>690,</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f>initData!K11&amp;","</f>
+        <v>567,</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f>initData!K12&amp;","</f>
+        <v>477,</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f>initData!K13&amp;","</f>
+        <v>408,</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f>initData!K14&amp;","</f>
+        <v>355,</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f>initData!K15&amp;","</f>
+        <v>311,</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f>initData!K16&amp;","</f>
+        <v>275,</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f>initData!K17&amp;","</f>
+        <v>245,</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f>initData!K18&amp;","</f>
+        <v>220,</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f>initData!K19&amp;","</f>
+        <v>198,</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f>initData!K20&amp;","</f>
+        <v>179,</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f>initData!K21&amp;","</f>
+        <v>162,</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f>initData!K22&amp;","</f>
+        <v>221,</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f>initData!K23&amp;","</f>
+        <v>368,</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f>initData!K24&amp;","</f>
+        <v>915,</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f>initData!K25&amp;","</f>
+        <v>674,</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f>initData!K26&amp;","</f>
+        <v>537,</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f>initData!K27&amp;","</f>
+        <v>716,</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f>initData!K28&amp;","</f>
+        <v>368,</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f>initData!K29&amp;","</f>
+        <v>168,</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f>initData!K30&amp;","</f>
+        <v>189,</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f>initData!K31&amp;","</f>
+        <v>674,</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f>initData!K32&amp;","</f>
+        <v>791,</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f>initData!K33&amp;","</f>
+        <v>548,</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f>initData!K34&amp;","</f>
+        <v>284,</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f>initData!K35&amp;","</f>
+        <v>247,</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6C32F02-5FE6-4395-B8D8-041217913683}">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="4800" topLeftCell="A28" activePane="bottomLeft"/>
+      <selection activeCell="A5" sqref="A5:B5"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f>initData!K4&amp;","</f>
+        <v>65,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f>initData!K5&amp;","</f>
+        <v>948,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f>initData!K6&amp;","</f>
+        <v>631,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f>initData!K7&amp;","</f>
+        <v>842,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f>initData!K8&amp;","</f>
+        <v>956,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f>initData!K9&amp;","</f>
+        <v>1042,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f>initData!K10&amp;","</f>
+        <v>690,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f>initData!K11&amp;","</f>
+        <v>567,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f>initData!K12&amp;","</f>
+        <v>477,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f>initData!K13&amp;","</f>
+        <v>408,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f>initData!K14&amp;","</f>
+        <v>355,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f>initData!K15&amp;","</f>
+        <v>311,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f>initData!K16&amp;","</f>
+        <v>275,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f>initData!K17&amp;","</f>
+        <v>245,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f>initData!K18&amp;","</f>
+        <v>220,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f>initData!K19&amp;","</f>
+        <v>198,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f>initData!K20&amp;","</f>
+        <v>179,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f>initData!K21&amp;","</f>
+        <v>162,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f>initData!K22&amp;","</f>
+        <v>221,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f>initData!K23&amp;","</f>
+        <v>368,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f>initData!K24&amp;","</f>
+        <v>915,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f>initData!K25&amp;","</f>
+        <v>674,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f>initData!K26&amp;","</f>
+        <v>537,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f>initData!K27&amp;","</f>
+        <v>716,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f>initData!K28&amp;","</f>
+        <v>368,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f>initData!K29&amp;","</f>
+        <v>168,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f>initData!K30&amp;","</f>
+        <v>189,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f>initData!K31&amp;","</f>
+        <v>674,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f>initData!K32&amp;","</f>
+        <v>791,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f>initData!K33&amp;","</f>
+        <v>548,</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f>initData!K34&amp;","</f>
+        <v>284,</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f>initData!K35&amp;","</f>
+        <v>247,</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F14BEE-FA51-4A93-A611-70F01656D8CC}">
+  <dimension ref="A1:A36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>initData!L4</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>initData!L5</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>initData!L6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>initData!L7</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>initData!L8</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>initData!L9</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>initData!L10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>initData!L11</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>initData!L12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>initData!L13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>initData!L14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>initData!L15</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>initData!L16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>initData!L17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>initData!L18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>initData!L19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>initData!L20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f>initData!L21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f>initData!L22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f>initData!L23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f>initData!L24</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f>initData!L25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f>initData!L26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f>initData!L27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f>initData!L28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f>initData!L29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f>initData!L30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f>initData!L31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f>initData!L32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f>initData!L33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f>initData!L34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f>initData!L35</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{972715ED-B762-437D-8CE3-242998BE45F8}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:Z47"/>
@@ -7303,7 +8433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{000A8703-1866-4462-8729-CF2892335D69}">
   <sheetPr codeName="Sheet5"/>
   <dimension ref="C2:X29"/>
